--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288170.418205818</v>
+        <v>287422.0166948994</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4354305.171692323</v>
+        <v>4354305.171692329</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736557</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>260.8850331288904</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>261.6197917010057</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>282.1305160374088</v>
+        <v>282.1305160374087</v>
       </c>
       <c r="H11" t="n">
-        <v>194.1880049094286</v>
+        <v>194.1880049094285</v>
       </c>
       <c r="I11" t="n">
-        <v>18.40621754884411</v>
+        <v>18.95690544140075</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.59464412049034</v>
+        <v>42.5946441204903</v>
       </c>
       <c r="T11" t="n">
-        <v>90.29547644886769</v>
+        <v>90.29547644886765</v>
       </c>
       <c r="U11" t="n">
-        <v>123.0708631572777</v>
+        <v>123.0708631572776</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>204.3914103690695</v>
       </c>
       <c r="W11" t="n">
-        <v>229.6915098470265</v>
+        <v>25.4841701575165</v>
       </c>
       <c r="X11" t="n">
         <v>248.9917680797731</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.3883658759719</v>
+        <v>260.3883658759718</v>
       </c>
     </row>
     <row r="12">
@@ -1452,16 +1452,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>8.232179645741553</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>16.33965884974899</v>
+        <v>16.33965884974896</v>
       </c>
       <c r="F12" t="n">
-        <v>43.52607287455027</v>
+        <v>4.128789075675883</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H12" t="n">
         <v>95.86716744632758</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>16.14651652925648</v>
+        <v>16.14651652925644</v>
       </c>
       <c r="T12" t="n">
         <v>185.5164475248238</v>
@@ -1512,10 +1512,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>108.2118975109553</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>61.37804209296843</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.50174400358753</v>
+        <v>52.5017440035875</v>
       </c>
       <c r="C13" t="n">
-        <v>38.70173884898801</v>
+        <v>38.70173884898799</v>
       </c>
       <c r="D13" t="n">
-        <v>22.3231032465664</v>
+        <v>22.32310324656638</v>
       </c>
       <c r="E13" t="n">
-        <v>21.27085310234585</v>
+        <v>21.27085310234582</v>
       </c>
       <c r="F13" t="n">
-        <v>21.73777743053216</v>
+        <v>21.73777743053213</v>
       </c>
       <c r="G13" t="n">
-        <v>37.7458708749018</v>
+        <v>37.74587087490177</v>
       </c>
       <c r="H13" t="n">
-        <v>26.19044893016422</v>
+        <v>26.19044893016419</v>
       </c>
       <c r="I13" t="n">
-        <v>5.525274884455282</v>
+        <v>5.525274884455243</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.820769996597187</v>
+        <v>6.820769996597143</v>
       </c>
       <c r="S13" t="n">
-        <v>77.7083213948807</v>
+        <v>77.70832139488067</v>
       </c>
       <c r="T13" t="n">
         <v>100.4899439296226</v>
@@ -1591,10 +1591,10 @@
         <v>154.0767664738264</v>
       </c>
       <c r="X13" t="n">
-        <v>99.7218684696295</v>
+        <v>99.72186846962947</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.59673622569719</v>
+        <v>90.59673622569716</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>239.8776541311002</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>242.8146220123359</v>
+        <v>261.6197917010056</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>243.1736779936154</v>
       </c>
       <c r="G14" t="n">
         <v>282.1305160374087</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>194.1880049094285</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.59464412049033</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3914103690696</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>229.6915098470265</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>248.9917680797731</v>
+        <v>248.991768079773</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>260.3883658759718</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.60717735949979</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>30.86856503750636</v>
+        <v>30.8685650375063</v>
       </c>
       <c r="D15" t="n">
-        <v>47.30532958517757</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>4.128789075675854</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.44188278383305</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>145.364587523205</v>
+        <v>94.66154925252572</v>
       </c>
       <c r="T15" t="n">
         <v>185.5164475248238</v>
       </c>
       <c r="U15" t="n">
-        <v>87.07085174372143</v>
+        <v>87.07085174372138</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.50174400358753</v>
+        <v>52.50174400358748</v>
       </c>
       <c r="C16" t="n">
-        <v>38.70173884898801</v>
+        <v>38.70173884898796</v>
       </c>
       <c r="D16" t="n">
-        <v>22.3231032465664</v>
+        <v>22.32310324656635</v>
       </c>
       <c r="E16" t="n">
-        <v>21.27085310234585</v>
+        <v>21.2708531023458</v>
       </c>
       <c r="F16" t="n">
-        <v>21.73777743053216</v>
+        <v>21.73777743053211</v>
       </c>
       <c r="G16" t="n">
-        <v>37.7458708749018</v>
+        <v>37.74587087490174</v>
       </c>
       <c r="H16" t="n">
-        <v>26.19044893016422</v>
+        <v>26.19044893016416</v>
       </c>
       <c r="I16" t="n">
-        <v>5.525274884455282</v>
+        <v>5.525274884455214</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.820769996597187</v>
+        <v>6.820769996597114</v>
       </c>
       <c r="S16" t="n">
-        <v>77.7083213948807</v>
+        <v>77.70832139488064</v>
       </c>
       <c r="T16" t="n">
-        <v>100.4899439296226</v>
+        <v>100.4899439296225</v>
       </c>
       <c r="U16" t="n">
         <v>155.0857237976438</v>
@@ -1825,13 +1825,13 @@
         <v>128.9098804032131</v>
       </c>
       <c r="W16" t="n">
-        <v>154.0767664738264</v>
+        <v>154.0767664738263</v>
       </c>
       <c r="X16" t="n">
-        <v>99.7218684696295</v>
+        <v>99.72186846962944</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.59673622569719</v>
+        <v>90.59673622569713</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.5895566800227</v>
+        <v>170.5895566800228</v>
       </c>
       <c r="C17" t="n">
         <v>158.6008736377045</v>
       </c>
       <c r="D17" t="n">
-        <v>149.5821776822324</v>
+        <v>149.5821776822325</v>
       </c>
       <c r="E17" t="n">
         <v>171.324315252138</v>
       </c>
       <c r="F17" t="n">
-        <v>190.4961313401151</v>
+        <v>190.4961313401152</v>
       </c>
       <c r="G17" t="n">
-        <v>191.835039588541</v>
+        <v>191.8350395885411</v>
       </c>
       <c r="H17" t="n">
-        <v>103.8925284605608</v>
+        <v>103.8925284605609</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>32.77538670840994</v>
+        <v>32.77538670841</v>
       </c>
       <c r="V17" t="n">
-        <v>114.0959339202018</v>
+        <v>114.0959339202019</v>
       </c>
       <c r="W17" t="n">
-        <v>139.3960333981587</v>
+        <v>139.3960333981588</v>
       </c>
       <c r="X17" t="n">
         <v>158.6962916309054</v>
       </c>
       <c r="Y17" t="n">
-        <v>170.0928894271041</v>
+        <v>170.0928894271042</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I18" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2889227376699</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>118.6354501216535</v>
+        <v>103.8117251288238</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9639418688503</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.6073903176101</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.82707656697312</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R19" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S19" t="n">
-        <v>146.3359736904621</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>10.19446748075486</v>
+        <v>10.19446748075492</v>
       </c>
       <c r="U19" t="n">
-        <v>64.79024734877608</v>
+        <v>64.79024734877613</v>
       </c>
       <c r="V19" t="n">
-        <v>38.61440395434539</v>
+        <v>38.61440395434545</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>262.6668692893867</v>
       </c>
       <c r="X19" t="n">
-        <v>9.426392020761767</v>
+        <v>9.426392020761824</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.301259776829454</v>
+        <v>0.3012597768295109</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.5895566800227</v>
+        <v>170.5895566800228</v>
       </c>
       <c r="C20" t="n">
-        <v>158.6008736377045</v>
+        <v>158.6008736377046</v>
       </c>
       <c r="D20" t="n">
-        <v>149.5821776822324</v>
+        <v>149.5821776822325</v>
       </c>
       <c r="E20" t="n">
-        <v>171.324315252138</v>
+        <v>171.3243152521381</v>
       </c>
       <c r="F20" t="n">
-        <v>190.4961313401151</v>
+        <v>190.4961313401152</v>
       </c>
       <c r="G20" t="n">
-        <v>191.835039588541</v>
+        <v>191.8350395885411</v>
       </c>
       <c r="H20" t="n">
-        <v>103.8925284605608</v>
+        <v>103.8925284605609</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>32.77538670840994</v>
+        <v>32.77538670841002</v>
       </c>
       <c r="V20" t="n">
-        <v>114.0959339202018</v>
+        <v>114.0959339202019</v>
       </c>
       <c r="W20" t="n">
-        <v>139.3960333981587</v>
+        <v>139.3960333981588</v>
       </c>
       <c r="X20" t="n">
         <v>158.6962916309054</v>
       </c>
       <c r="Y20" t="n">
-        <v>170.0928894271041</v>
+        <v>170.0928894271042</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>42.66134470593489</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T21" t="n">
         <v>185.5164475248238</v>
@@ -2223,7 +2223,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>19.96197259792387</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9639418688503</v>
       </c>
       <c r="H22" t="n">
-        <v>155.4085199241127</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S22" t="n">
-        <v>183.4007616414783</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>10.19446748075486</v>
+        <v>10.19446748075495</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3037947915923</v>
+        <v>64.79024734877616</v>
       </c>
       <c r="V22" t="n">
-        <v>38.61440395434539</v>
+        <v>38.61440395434548</v>
       </c>
       <c r="W22" t="n">
-        <v>63.78129002495865</v>
+        <v>99.58778873115362</v>
       </c>
       <c r="X22" t="n">
-        <v>9.426392020761767</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.301259776829454</v>
+        <v>0.3012597768295393</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2318,13 @@
         <v>170.5895566800228</v>
       </c>
       <c r="C23" t="n">
-        <v>158.6008736377045</v>
+        <v>158.6008736377046</v>
       </c>
       <c r="D23" t="n">
         <v>149.5821776822325</v>
       </c>
       <c r="E23" t="n">
-        <v>171.324315252138</v>
+        <v>171.3243152521381</v>
       </c>
       <c r="F23" t="n">
         <v>190.4961313401152</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>32.77538670841</v>
+        <v>32.77538670841002</v>
       </c>
       <c r="V23" t="n">
         <v>114.0959339202019</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>69.37082374934158</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>168.7867497602536</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2889227376699</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>6.5981188833332</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T25" t="n">
-        <v>129.4902016035295</v>
+        <v>10.19446748075495</v>
       </c>
       <c r="U25" t="n">
-        <v>64.79024734877613</v>
+        <v>64.79024734877616</v>
       </c>
       <c r="V25" t="n">
-        <v>38.61440395434545</v>
+        <v>38.61440395434548</v>
       </c>
       <c r="W25" t="n">
-        <v>63.78129002495871</v>
+        <v>63.78129002495874</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>56.86417780685734</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0.3012597768295393</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>222.0346248910547</v>
       </c>
       <c r="I26" t="n">
-        <v>46.80352542302697</v>
+        <v>46.80352542302694</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>70.44126410211649</v>
       </c>
       <c r="T26" t="n">
-        <v>118.1420964304939</v>
+        <v>118.1420964304938</v>
       </c>
       <c r="U26" t="n">
         <v>150.9174831389038</v>
@@ -2652,7 +2652,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I27" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>39.44188278383305</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S27" t="n">
         <v>145.364587523205</v>
@@ -2725,7 +2725,7 @@
         <v>49.58439741215832</v>
       </c>
       <c r="G28" t="n">
-        <v>65.59249085652796</v>
+        <v>65.59249085652795</v>
       </c>
       <c r="H28" t="n">
         <v>54.03706891179039</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66738997822335</v>
+        <v>34.66738997822333</v>
       </c>
       <c r="S28" t="n">
         <v>105.5549413765069</v>
@@ -2810,7 +2810,7 @@
         <v>222.0346248910547</v>
       </c>
       <c r="I29" t="n">
-        <v>46.80352542302697</v>
+        <v>46.80352542302695</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I30" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.44188278383305</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S30" t="n">
         <v>145.364587523205</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.34836398521369</v>
+        <v>80.34836398521371</v>
       </c>
       <c r="C31" t="n">
-        <v>66.54835883061418</v>
+        <v>66.54835883061419</v>
       </c>
       <c r="D31" t="n">
-        <v>50.16972322819257</v>
+        <v>50.16972322819258</v>
       </c>
       <c r="E31" t="n">
-        <v>49.11747308397202</v>
+        <v>49.11747308397203</v>
       </c>
       <c r="F31" t="n">
-        <v>49.58439741215832</v>
+        <v>49.58439741215834</v>
       </c>
       <c r="G31" t="n">
-        <v>65.59249085652795</v>
+        <v>65.59249085652796</v>
       </c>
       <c r="H31" t="n">
         <v>54.03706891179039</v>
@@ -3016,7 +3016,7 @@
         <v>127.5684884512557</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.4433562073233</v>
+        <v>118.4433562073234</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>288.7316531105166</v>
       </c>
       <c r="C32" t="n">
-        <v>276.7429700681983</v>
+        <v>276.7429700681984</v>
       </c>
       <c r="D32" t="n">
         <v>267.7242741127263</v>
       </c>
       <c r="E32" t="n">
-        <v>289.4664116826318</v>
+        <v>289.4664116826319</v>
       </c>
       <c r="F32" t="n">
         <v>308.638227770609</v>
       </c>
       <c r="G32" t="n">
-        <v>309.9771360190348</v>
+        <v>309.9771360190349</v>
       </c>
       <c r="H32" t="n">
-        <v>222.0346248910546</v>
+        <v>222.0346248910547</v>
       </c>
       <c r="I32" t="n">
         <v>46.80352542302693</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.44126410211645</v>
+        <v>70.44126410211648</v>
       </c>
       <c r="T32" t="n">
         <v>118.1420964304938</v>
@@ -3092,7 +3092,7 @@
         <v>257.5381298286526</v>
       </c>
       <c r="X32" t="n">
-        <v>276.8383880613992</v>
+        <v>276.8383880613993</v>
       </c>
       <c r="Y32" t="n">
         <v>288.234985857598</v>
@@ -3126,7 +3126,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I33" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.44188278383305</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S33" t="n">
         <v>145.364587523205</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.34836398521365</v>
+        <v>80.34836398521368</v>
       </c>
       <c r="C34" t="n">
-        <v>66.54835883061413</v>
+        <v>66.54835883061416</v>
       </c>
       <c r="D34" t="n">
-        <v>50.16972322819252</v>
+        <v>50.16972322819255</v>
       </c>
       <c r="E34" t="n">
-        <v>49.11747308397197</v>
+        <v>49.117473083972</v>
       </c>
       <c r="F34" t="n">
-        <v>49.58439741215828</v>
+        <v>49.58439741215831</v>
       </c>
       <c r="G34" t="n">
-        <v>65.5924908565279</v>
+        <v>65.59249085652795</v>
       </c>
       <c r="H34" t="n">
-        <v>54.03706891179034</v>
+        <v>54.03706891179036</v>
       </c>
       <c r="I34" t="n">
-        <v>33.3718948660814</v>
+        <v>33.37189486608142</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66738997822331</v>
+        <v>34.66738997822332</v>
       </c>
       <c r="S34" t="n">
         <v>105.5549413765068</v>
       </c>
       <c r="T34" t="n">
-        <v>128.3365639112487</v>
+        <v>128.3365639112488</v>
       </c>
       <c r="U34" t="n">
-        <v>182.9323437792699</v>
+        <v>182.93234377927</v>
       </c>
       <c r="V34" t="n">
-        <v>156.7565003848392</v>
+        <v>156.7565003848393</v>
       </c>
       <c r="W34" t="n">
         <v>181.9233864554525</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.0531522757347</v>
+        <v>224.0531522757346</v>
       </c>
       <c r="C35" t="n">
         <v>212.0644692334164</v>
       </c>
       <c r="D35" t="n">
-        <v>203.0457732779444</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E35" t="n">
         <v>224.7879108478499</v>
       </c>
       <c r="F35" t="n">
-        <v>243.9597269358271</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G35" t="n">
-        <v>245.298635184253</v>
+        <v>245.2986351842529</v>
       </c>
       <c r="H35" t="n">
-        <v>157.3561240562728</v>
+        <v>157.3561240562727</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.762763267334549</v>
+        <v>5.762763267334492</v>
       </c>
       <c r="T35" t="n">
-        <v>53.46359559571192</v>
+        <v>53.46359559571184</v>
       </c>
       <c r="U35" t="n">
-        <v>86.23898230412189</v>
+        <v>86.23898230412183</v>
       </c>
       <c r="V35" t="n">
-        <v>167.5595295159138</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W35" t="n">
-        <v>192.8596289938707</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X35" t="n">
         <v>212.1598872266173</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.5564850228161</v>
+        <v>223.556485022816</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3351,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.557729843698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3363,7 +3363,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I36" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.44188278383305</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S36" t="n">
         <v>145.364587523205</v>
@@ -3402,7 +3402,7 @@
         <v>216.2889227376699</v>
       </c>
       <c r="V36" t="n">
-        <v>226.1116663261494</v>
+        <v>226.1116663261498</v>
       </c>
       <c r="W36" t="n">
         <v>238.9027100790231</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.66986315043175</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>1.869857995832234</v>
+        <v>1.869857995832177</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9139900217460155</v>
+        <v>13.07514189904308</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>40.6073903176101</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>40.87644054172492</v>
+        <v>40.87644054172485</v>
       </c>
       <c r="T37" t="n">
-        <v>63.65806307646682</v>
+        <v>63.65806307646675</v>
       </c>
       <c r="U37" t="n">
         <v>118.253842944488</v>
       </c>
       <c r="V37" t="n">
-        <v>92.07799955005734</v>
+        <v>92.07799955005729</v>
       </c>
       <c r="W37" t="n">
-        <v>254.848599027461</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X37" t="n">
-        <v>62.88998761647372</v>
+        <v>62.88998761647366</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.7648553725414</v>
+        <v>53.76485537254135</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.0531522757346</v>
+        <v>224.0531522757347</v>
       </c>
       <c r="C38" t="n">
         <v>212.0644692334164</v>
       </c>
       <c r="D38" t="n">
-        <v>203.0457732779443</v>
+        <v>203.0457732779444</v>
       </c>
       <c r="E38" t="n">
         <v>224.7879108478499</v>
       </c>
       <c r="F38" t="n">
-        <v>243.959726935827</v>
+        <v>243.9597269358271</v>
       </c>
       <c r="G38" t="n">
-        <v>245.2986351842529</v>
+        <v>245.298635184253</v>
       </c>
       <c r="H38" t="n">
-        <v>157.3561240562727</v>
+        <v>157.3561240562728</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.762763267334492</v>
+        <v>5.762763267334549</v>
       </c>
       <c r="T38" t="n">
-        <v>53.46359559571187</v>
+        <v>53.46359559571189</v>
       </c>
       <c r="U38" t="n">
-        <v>86.23898230412183</v>
+        <v>86.23898230412189</v>
       </c>
       <c r="V38" t="n">
-        <v>167.5595295159137</v>
+        <v>167.5595295159138</v>
       </c>
       <c r="W38" t="n">
-        <v>192.8596289938706</v>
+        <v>192.8596289938707</v>
       </c>
       <c r="X38" t="n">
         <v>212.1598872266173</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.556485022816</v>
+        <v>223.5564850228161</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I39" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.44188278383347</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S39" t="n">
         <v>145.364587523205</v>
@@ -3642,7 +3642,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>238.9027100790231</v>
+        <v>238.9027100790236</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.66986315043169</v>
+        <v>15.66986315043175</v>
       </c>
       <c r="C40" t="n">
-        <v>1.869857995832177</v>
+        <v>1.869857995832234</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9639418688503</v>
+        <v>0.9139900217460153</v>
       </c>
       <c r="H40" t="n">
-        <v>12.1611518772968</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>12.16115187729673</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>40.87644054172486</v>
+        <v>40.87644054172491</v>
       </c>
       <c r="T40" t="n">
-        <v>63.65806307646676</v>
+        <v>63.65806307646681</v>
       </c>
       <c r="U40" t="n">
         <v>118.253842944488</v>
       </c>
       <c r="V40" t="n">
-        <v>92.07799955005729</v>
+        <v>92.07799955005734</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2448856206705</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>62.88998761647366</v>
+        <v>62.88998761647372</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.76485537254135</v>
+        <v>53.7648553725414</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3791,7 @@
         <v>5.762763267334492</v>
       </c>
       <c r="T41" t="n">
-        <v>53.46359559571187</v>
+        <v>53.46359559571184</v>
       </c>
       <c r="U41" t="n">
         <v>86.23898230412183</v>
@@ -3837,7 +3837,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I42" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.44188278383305</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S42" t="n">
         <v>145.364587523205</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>137.603713406791</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9139900217459587</v>
+        <v>0.9139900217459584</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.6073903176101</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,22 +3940,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>40.87644054172486</v>
+        <v>40.87644054172485</v>
       </c>
       <c r="T43" t="n">
-        <v>63.65806307646676</v>
+        <v>63.65806307646675</v>
       </c>
       <c r="U43" t="n">
         <v>118.253842944488</v>
       </c>
       <c r="V43" t="n">
-        <v>92.07799955005729</v>
+        <v>213.8546363898756</v>
       </c>
       <c r="W43" t="n">
         <v>117.2448856206705</v>
@@ -4028,7 +4028,7 @@
         <v>5.762763267334407</v>
       </c>
       <c r="T44" t="n">
-        <v>53.46359559571178</v>
+        <v>53.46359559571175</v>
       </c>
       <c r="U44" t="n">
         <v>86.23898230412175</v>
@@ -4074,7 +4074,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I45" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.44188278383305</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S45" t="n">
         <v>145.364587523205</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9139900217458734</v>
+        <v>0.9139900217458732</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.87644054172478</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T46" t="n">
-        <v>229.7080149235711</v>
+        <v>75.81921495376461</v>
       </c>
       <c r="U46" t="n">
-        <v>130.4149948217855</v>
+        <v>118.2538429444879</v>
       </c>
       <c r="V46" t="n">
         <v>92.0779995500572</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>800.0877991623126</v>
+        <v>536.3816336992317</v>
       </c>
       <c r="C11" t="n">
-        <v>800.0877991623126</v>
+        <v>536.3816336992317</v>
       </c>
       <c r="D11" t="n">
-        <v>800.0877991623126</v>
+        <v>536.3816336992317</v>
       </c>
       <c r="E11" t="n">
-        <v>535.8253833027109</v>
+        <v>536.3816336992317</v>
       </c>
       <c r="F11" t="n">
-        <v>535.8253833027109</v>
+        <v>536.3816336992317</v>
       </c>
       <c r="G11" t="n">
-        <v>250.8450640730052</v>
+        <v>251.4013144695265</v>
       </c>
       <c r="H11" t="n">
-        <v>54.69556416449095</v>
+        <v>55.25181456101282</v>
       </c>
       <c r="I11" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J11" t="n">
-        <v>158.0430464355078</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="K11" t="n">
-        <v>473.0321469193354</v>
+        <v>473.0321469193355</v>
       </c>
       <c r="L11" t="n">
-        <v>473.0321469193354</v>
+        <v>913.7739862102275</v>
       </c>
       <c r="M11" t="n">
-        <v>919.8120340943594</v>
+        <v>913.7739862102275</v>
       </c>
       <c r="N11" t="n">
-        <v>1366.591921269383</v>
+        <v>930.2787636703683</v>
       </c>
       <c r="O11" t="n">
-        <v>1770.737990909</v>
+        <v>1334.424833309985</v>
       </c>
       <c r="P11" t="n">
-        <v>1805.171261313229</v>
+        <v>1647.196693636562</v>
       </c>
       <c r="Q11" t="n">
         <v>1805.171261313229</v>
@@ -5075,16 +5075,16 @@
         <v>1546.624813104506</v>
       </c>
       <c r="V11" t="n">
-        <v>1546.624813104506</v>
+        <v>1340.168843034739</v>
       </c>
       <c r="W11" t="n">
-        <v>1314.613186996399</v>
+        <v>1314.427257017045</v>
       </c>
       <c r="X11" t="n">
-        <v>1063.106350552183</v>
+        <v>1062.92042057283</v>
       </c>
       <c r="Y11" t="n">
-        <v>800.0877991623126</v>
+        <v>799.9018691829592</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>363.4283897190153</v>
+        <v>582.5637348947494</v>
       </c>
       <c r="C12" t="n">
-        <v>201.72471695997</v>
+        <v>420.860062135704</v>
       </c>
       <c r="D12" t="n">
-        <v>193.4093839844735</v>
+        <v>282.0214251259161</v>
       </c>
       <c r="E12" t="n">
-        <v>176.9046780756362</v>
+        <v>265.5167192170788</v>
       </c>
       <c r="F12" t="n">
-        <v>132.9389478993228</v>
+        <v>261.3462252012446</v>
       </c>
       <c r="G12" t="n">
         <v>132.9389478993228</v>
@@ -5118,19 +5118,19 @@
         <v>36.10342522626458</v>
       </c>
       <c r="J12" t="n">
-        <v>126.102135052085</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="K12" t="n">
-        <v>406.4308839238591</v>
+        <v>316.4321740980387</v>
       </c>
       <c r="L12" t="n">
-        <v>840.6109578579978</v>
+        <v>750.6122480321776</v>
       </c>
       <c r="M12" t="n">
-        <v>840.6109578579978</v>
+        <v>798.2172206152192</v>
       </c>
       <c r="N12" t="n">
-        <v>840.6109578579978</v>
+        <v>798.2172206152192</v>
       </c>
       <c r="O12" t="n">
         <v>1244.997107790243</v>
@@ -5160,10 +5160,10 @@
         <v>913.2861469729029</v>
       </c>
       <c r="X12" t="n">
-        <v>715.3691588506974</v>
+        <v>803.98119999214</v>
       </c>
       <c r="Y12" t="n">
-        <v>522.8478325002762</v>
+        <v>741.9831776760102</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.3509679716724</v>
+        <v>211.3509679716722</v>
       </c>
       <c r="C13" t="n">
-        <v>172.2583024676441</v>
+        <v>172.2583024676439</v>
       </c>
       <c r="D13" t="n">
-        <v>149.7097133296982</v>
+        <v>149.7097133296981</v>
       </c>
       <c r="E13" t="n">
-        <v>128.2240031253085</v>
+        <v>128.2240031253083</v>
       </c>
       <c r="F13" t="n">
-        <v>106.266652185377</v>
+        <v>106.2666521853769</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13950988749639</v>
+        <v>68.13950988749633</v>
       </c>
       <c r="H13" t="n">
-        <v>41.6845109681386</v>
+        <v>41.68451096813856</v>
       </c>
       <c r="I13" t="n">
         <v>36.10342522626458</v>
@@ -5200,49 +5200,49 @@
         <v>123.8279990958396</v>
       </c>
       <c r="K13" t="n">
-        <v>188.0975858785158</v>
+        <v>285.061313786657</v>
       </c>
       <c r="L13" t="n">
-        <v>327.945818320089</v>
+        <v>424.9095462282303</v>
       </c>
       <c r="M13" t="n">
-        <v>487.313618314107</v>
+        <v>584.2773462222483</v>
       </c>
       <c r="N13" t="n">
-        <v>646.1264656980741</v>
+        <v>743.0901936062155</v>
       </c>
       <c r="O13" t="n">
-        <v>781.8972815398776</v>
+        <v>878.861009448019</v>
       </c>
       <c r="P13" t="n">
-        <v>973.7522215644193</v>
+        <v>973.7522215644188</v>
       </c>
       <c r="Q13" t="n">
-        <v>1086.009306047125</v>
+        <v>1086.009306047124</v>
       </c>
       <c r="R13" t="n">
         <v>1079.119639383895</v>
       </c>
       <c r="S13" t="n">
-        <v>1000.626385449673</v>
+        <v>1000.626385449672</v>
       </c>
       <c r="T13" t="n">
-        <v>899.1213915813669</v>
+        <v>899.1213915813664</v>
       </c>
       <c r="U13" t="n">
-        <v>742.4691453211205</v>
+        <v>742.4691453211202</v>
       </c>
       <c r="V13" t="n">
-        <v>612.2571449138346</v>
+        <v>612.2571449138343</v>
       </c>
       <c r="W13" t="n">
-        <v>456.6240474655252</v>
+        <v>456.6240474655249</v>
       </c>
       <c r="X13" t="n">
-        <v>355.8948873951923</v>
+        <v>355.8948873951921</v>
       </c>
       <c r="Y13" t="n">
-        <v>264.3830326217608</v>
+        <v>264.3830326217606</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>808.6517001564108</v>
+        <v>1027.125637995414</v>
       </c>
       <c r="C14" t="n">
-        <v>808.6517001564108</v>
+        <v>1027.125637995414</v>
       </c>
       <c r="D14" t="n">
-        <v>566.3510394179258</v>
+        <v>1027.125637995414</v>
       </c>
       <c r="E14" t="n">
-        <v>321.0837444559704</v>
+        <v>762.8632221358127</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0837444559704</v>
+        <v>517.233244364484</v>
       </c>
       <c r="G14" t="n">
-        <v>36.10342522626458</v>
+        <v>232.2529251347782</v>
       </c>
       <c r="H14" t="n">
         <v>36.10342522626458</v>
@@ -5279,19 +5279,19 @@
         <v>36.10342522626458</v>
       </c>
       <c r="K14" t="n">
-        <v>351.0925257100921</v>
+        <v>351.0925257100922</v>
       </c>
       <c r="L14" t="n">
-        <v>791.834365000984</v>
+        <v>791.8343650009841</v>
       </c>
       <c r="M14" t="n">
-        <v>791.834365000984</v>
+        <v>1238.614252176008</v>
       </c>
       <c r="N14" t="n">
-        <v>1238.614252176008</v>
+        <v>1685.394139351032</v>
       </c>
       <c r="O14" t="n">
-        <v>1642.760321815624</v>
+        <v>1685.394139351032</v>
       </c>
       <c r="P14" t="n">
         <v>1805.171261313229</v>
@@ -5303,25 +5303,25 @@
         <v>1805.171261313229</v>
       </c>
       <c r="S14" t="n">
-        <v>1762.146368262229</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="T14" t="n">
-        <v>1762.146368262229</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="U14" t="n">
-        <v>1762.146368262229</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="V14" t="n">
-        <v>1555.690398192461</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="W14" t="n">
-        <v>1323.678772084354</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="X14" t="n">
-        <v>1072.171935640139</v>
+        <v>1553.664424869014</v>
       </c>
       <c r="Y14" t="n">
-        <v>1072.171935640139</v>
+        <v>1290.645873479143</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>454.1114081130714</v>
+        <v>414.6435798914187</v>
       </c>
       <c r="C15" t="n">
-        <v>422.9310393883175</v>
+        <v>383.4632111666648</v>
       </c>
       <c r="D15" t="n">
-        <v>375.1478781911684</v>
+        <v>244.6245741568769</v>
       </c>
       <c r="E15" t="n">
-        <v>228.1198682480396</v>
+        <v>97.59656421374815</v>
       </c>
       <c r="F15" t="n">
-        <v>93.42607019791399</v>
+        <v>93.42607019791396</v>
       </c>
       <c r="G15" t="n">
-        <v>93.42607019791399</v>
+        <v>93.42607019791396</v>
       </c>
       <c r="H15" t="n">
-        <v>93.42607019791399</v>
+        <v>93.42607019791396</v>
       </c>
       <c r="I15" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J15" t="n">
-        <v>126.102135052085</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="K15" t="n">
-        <v>406.4308839238591</v>
+        <v>316.4321740980387</v>
       </c>
       <c r="L15" t="n">
-        <v>406.4308839238591</v>
+        <v>750.6122480321776</v>
       </c>
       <c r="M15" t="n">
-        <v>853.2107710988832</v>
+        <v>750.6122480321776</v>
       </c>
       <c r="N15" t="n">
-        <v>1244.997107790243</v>
+        <v>1197.392135207202</v>
       </c>
       <c r="O15" t="n">
-        <v>1244.997107790243</v>
+        <v>1644.172022382226</v>
       </c>
       <c r="P15" t="n">
-        <v>1607.2118143385</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q15" t="n">
         <v>1805.171261313229</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.330975672993</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="S15" t="n">
-        <v>1618.498058982887</v>
+        <v>1709.553534795526</v>
       </c>
       <c r="T15" t="n">
-        <v>1431.107707947712</v>
+        <v>1522.16318376035</v>
       </c>
       <c r="U15" t="n">
-        <v>1343.157352651024</v>
+        <v>1434.212828463662</v>
       </c>
       <c r="V15" t="n">
-        <v>1114.761730099357</v>
+        <v>1205.817205911996</v>
       </c>
       <c r="W15" t="n">
-        <v>873.4458613326675</v>
+        <v>964.5013371453063</v>
       </c>
       <c r="X15" t="n">
-        <v>675.5288732104621</v>
+        <v>766.5843490231008</v>
       </c>
       <c r="Y15" t="n">
-        <v>483.0075468600409</v>
+        <v>574.0630226726796</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.3509679716724</v>
+        <v>211.350967971672</v>
       </c>
       <c r="C16" t="n">
-        <v>172.2583024676441</v>
+        <v>172.2583024676437</v>
       </c>
       <c r="D16" t="n">
-        <v>149.7097133296982</v>
+        <v>149.7097133296979</v>
       </c>
       <c r="E16" t="n">
-        <v>128.2240031253085</v>
+        <v>128.2240031253082</v>
       </c>
       <c r="F16" t="n">
-        <v>106.266652185377</v>
+        <v>106.2666521853768</v>
       </c>
       <c r="G16" t="n">
-        <v>68.13950988749639</v>
+        <v>68.13950988749627</v>
       </c>
       <c r="H16" t="n">
-        <v>41.6845109681386</v>
+        <v>41.68451096813853</v>
       </c>
       <c r="I16" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J16" t="n">
-        <v>123.8279990958396</v>
+        <v>123.8279990958397</v>
       </c>
       <c r="K16" t="n">
-        <v>285.0613137866577</v>
+        <v>188.0975858785159</v>
       </c>
       <c r="L16" t="n">
-        <v>424.9095462282309</v>
+        <v>327.9458183200892</v>
       </c>
       <c r="M16" t="n">
-        <v>584.2773462222489</v>
+        <v>487.3136183141072</v>
       </c>
       <c r="N16" t="n">
-        <v>743.090193606216</v>
+        <v>646.1264656980743</v>
       </c>
       <c r="O16" t="n">
-        <v>878.8610094480194</v>
+        <v>878.8610094480186</v>
       </c>
       <c r="P16" t="n">
-        <v>973.7522215644193</v>
+        <v>973.7522215644185</v>
       </c>
       <c r="Q16" t="n">
-        <v>1086.009306047125</v>
+        <v>1086.009306047124</v>
       </c>
       <c r="R16" t="n">
         <v>1079.119639383895</v>
       </c>
       <c r="S16" t="n">
-        <v>1000.626385449673</v>
+        <v>1000.626385449672</v>
       </c>
       <c r="T16" t="n">
-        <v>899.1213915813669</v>
+        <v>899.1213915813662</v>
       </c>
       <c r="U16" t="n">
-        <v>742.4691453211205</v>
+        <v>742.46914532112</v>
       </c>
       <c r="V16" t="n">
-        <v>612.2571449138346</v>
+        <v>612.2571449138341</v>
       </c>
       <c r="W16" t="n">
-        <v>456.6240474655252</v>
+        <v>456.6240474655247</v>
       </c>
       <c r="X16" t="n">
-        <v>355.8948873951923</v>
+        <v>355.8948873951919</v>
       </c>
       <c r="Y16" t="n">
-        <v>264.3830326217608</v>
+        <v>264.3830326217604</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>1011.589350439691</v>
       </c>
       <c r="C17" t="n">
-        <v>851.3864477753426</v>
+        <v>851.3864477753425</v>
       </c>
       <c r="D17" t="n">
-        <v>700.2933390054109</v>
+        <v>700.2933390054106</v>
       </c>
       <c r="E17" t="n">
-        <v>527.2384751143625</v>
+        <v>527.2384751143621</v>
       </c>
       <c r="F17" t="n">
-        <v>334.8181404273774</v>
+        <v>334.8181404273771</v>
       </c>
       <c r="G17" t="n">
-        <v>141.045373166225</v>
+        <v>141.0453731662251</v>
       </c>
       <c r="H17" t="n">
         <v>36.10342522626458</v>
@@ -5516,22 +5516,22 @@
         <v>36.10342522626458</v>
       </c>
       <c r="K17" t="n">
-        <v>351.0925257100921</v>
+        <v>351.0925257100922</v>
       </c>
       <c r="L17" t="n">
-        <v>791.834365000984</v>
+        <v>791.8343650009841</v>
       </c>
       <c r="M17" t="n">
-        <v>791.834365000984</v>
+        <v>1045.619513811627</v>
       </c>
       <c r="N17" t="n">
-        <v>930.2787636703688</v>
+        <v>1492.399400986651</v>
       </c>
       <c r="O17" t="n">
-        <v>1334.424833309985</v>
+        <v>1492.399400986651</v>
       </c>
       <c r="P17" t="n">
-        <v>1647.196693636562</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q17" t="n">
         <v>1805.171261313229</v>
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>675.6901879600016</v>
+        <v>681.906670204287</v>
       </c>
       <c r="C18" t="n">
-        <v>513.9865152009563</v>
+        <v>681.906670204287</v>
       </c>
       <c r="D18" t="n">
-        <v>375.1478781911684</v>
+        <v>543.0680331944991</v>
       </c>
       <c r="E18" t="n">
-        <v>228.1198682480396</v>
+        <v>396.0400232513703</v>
       </c>
       <c r="F18" t="n">
-        <v>93.42607019791399</v>
+        <v>261.3462252012446</v>
       </c>
       <c r="G18" t="n">
-        <v>93.42607019791399</v>
+        <v>132.9389478993228</v>
       </c>
       <c r="H18" t="n">
-        <v>93.42607019791399</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I18" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J18" t="n">
-        <v>36.10342522626458</v>
+        <v>126.102135052085</v>
       </c>
       <c r="K18" t="n">
-        <v>36.10342522626458</v>
+        <v>126.102135052085</v>
       </c>
       <c r="L18" t="n">
-        <v>470.2834991604033</v>
+        <v>560.2822089862238</v>
       </c>
       <c r="M18" t="n">
-        <v>917.0633863354274</v>
+        <v>996.1766675899484</v>
       </c>
       <c r="N18" t="n">
         <v>996.1766675899484</v>
@@ -5616,28 +5616,28 @@
         <v>1805.171261313229</v>
       </c>
       <c r="R18" t="n">
-        <v>1805.171261313229</v>
+        <v>1765.330975672993</v>
       </c>
       <c r="S18" t="n">
-        <v>1805.171261313229</v>
+        <v>1765.330975672993</v>
       </c>
       <c r="T18" t="n">
-        <v>1805.171261313229</v>
+        <v>1577.940624637818</v>
       </c>
       <c r="U18" t="n">
-        <v>1586.697601982249</v>
+        <v>1577.940624637818</v>
       </c>
       <c r="V18" t="n">
-        <v>1466.863813980579</v>
+        <v>1473.080296224864</v>
       </c>
       <c r="W18" t="n">
-        <v>1225.547945213889</v>
+        <v>1231.764427458174</v>
       </c>
       <c r="X18" t="n">
-        <v>1027.630957091684</v>
+        <v>1033.847439335969</v>
       </c>
       <c r="Y18" t="n">
-        <v>835.1096307412624</v>
+        <v>841.326112985548</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.12099120364852</v>
+        <v>245.7714375358205</v>
       </c>
       <c r="C19" t="n">
-        <v>77.12099120364852</v>
+        <v>245.7714375358205</v>
       </c>
       <c r="D19" t="n">
-        <v>77.12099120364852</v>
+        <v>245.7714375358205</v>
       </c>
       <c r="E19" t="n">
-        <v>77.12099120364852</v>
+        <v>245.7714375358205</v>
       </c>
       <c r="F19" t="n">
-        <v>77.12099120364852</v>
+        <v>245.7714375358205</v>
       </c>
       <c r="G19" t="n">
-        <v>77.12099120364852</v>
+        <v>77.12099120364849</v>
       </c>
       <c r="H19" t="n">
-        <v>77.12099120364852</v>
+        <v>77.12099120364849</v>
       </c>
       <c r="I19" t="n">
-        <v>77.12099120364852</v>
+        <v>77.12099120364849</v>
       </c>
       <c r="J19" t="n">
         <v>36.10342522626458</v>
@@ -5677,46 +5677,46 @@
         <v>100.3730120089408</v>
       </c>
       <c r="L19" t="n">
-        <v>240.221244450514</v>
+        <v>240.2212444505141</v>
       </c>
       <c r="M19" t="n">
-        <v>399.589044444532</v>
+        <v>399.5890444445321</v>
       </c>
       <c r="N19" t="n">
-        <v>558.4018918284991</v>
+        <v>558.4018918284992</v>
       </c>
       <c r="O19" t="n">
-        <v>694.1727076703025</v>
+        <v>694.1727076703028</v>
       </c>
       <c r="P19" t="n">
-        <v>789.0639197867024</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="Q19" t="n">
-        <v>773.0769737594568</v>
+        <v>773.0769737594571</v>
       </c>
       <c r="R19" t="n">
-        <v>635.6640030619359</v>
+        <v>635.6640030619362</v>
       </c>
       <c r="S19" t="n">
-        <v>487.8498882230853</v>
+        <v>635.6640030619362</v>
       </c>
       <c r="T19" t="n">
-        <v>477.5524463233329</v>
+        <v>625.3665611621838</v>
       </c>
       <c r="U19" t="n">
-        <v>412.1077520316399</v>
+        <v>559.9218668704907</v>
       </c>
       <c r="V19" t="n">
-        <v>373.1033035929072</v>
+        <v>520.9174184317579</v>
       </c>
       <c r="W19" t="n">
-        <v>86.94690211030631</v>
+        <v>255.5973484424784</v>
       </c>
       <c r="X19" t="n">
-        <v>77.42529400852675</v>
+        <v>246.0757403406988</v>
       </c>
       <c r="Y19" t="n">
-        <v>77.12099120364852</v>
+        <v>245.7714375358205</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>1011.589350439691</v>
       </c>
       <c r="C20" t="n">
-        <v>851.3864477753433</v>
+        <v>851.3864477753427</v>
       </c>
       <c r="D20" t="n">
-        <v>700.2933390054116</v>
+        <v>700.2933390054109</v>
       </c>
       <c r="E20" t="n">
-        <v>527.2384751143632</v>
+        <v>527.2384751143624</v>
       </c>
       <c r="F20" t="n">
-        <v>334.8181404273782</v>
+        <v>334.8181404273773</v>
       </c>
       <c r="G20" t="n">
-        <v>141.045373166225</v>
+        <v>141.0453731662251</v>
       </c>
       <c r="H20" t="n">
         <v>36.10342522626458</v>
@@ -5750,25 +5750,25 @@
         <v>36.10342522626458</v>
       </c>
       <c r="J20" t="n">
-        <v>36.10342522626458</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="K20" t="n">
-        <v>36.10342522626458</v>
+        <v>355.5288975310298</v>
       </c>
       <c r="L20" t="n">
-        <v>476.8452645171564</v>
+        <v>796.2707368219218</v>
       </c>
       <c r="M20" t="n">
-        <v>923.6251516921805</v>
+        <v>796.2707368219218</v>
       </c>
       <c r="N20" t="n">
-        <v>1370.405038867204</v>
+        <v>1243.050623996946</v>
       </c>
       <c r="O20" t="n">
-        <v>1774.551108506821</v>
+        <v>1647.196693636562</v>
       </c>
       <c r="P20" t="n">
-        <v>1805.171261313229</v>
+        <v>1647.196693636562</v>
       </c>
       <c r="Q20" t="n">
         <v>1805.171261313229</v>
@@ -5786,7 +5786,7 @@
         <v>1772.064810092613</v>
       </c>
       <c r="V20" t="n">
-        <v>1656.8163919914</v>
+        <v>1656.816391991399</v>
       </c>
       <c r="W20" t="n">
         <v>1516.012317851845</v>
@@ -5795,7 +5795,7 @@
         <v>1355.713033376183</v>
       </c>
       <c r="Y20" t="n">
-        <v>1183.902033954866</v>
+        <v>1183.902033954865</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336.6457349950978</v>
+        <v>570.0779079034187</v>
       </c>
       <c r="C21" t="n">
-        <v>174.9420622360525</v>
+        <v>408.3742351443734</v>
       </c>
       <c r="D21" t="n">
-        <v>36.10342522626458</v>
+        <v>408.3742351443734</v>
       </c>
       <c r="E21" t="n">
-        <v>36.10342522626458</v>
+        <v>261.3462252012446</v>
       </c>
       <c r="F21" t="n">
-        <v>36.10342522626458</v>
+        <v>261.3462252012446</v>
       </c>
       <c r="G21" t="n">
-        <v>36.10342522626458</v>
+        <v>132.9389478993228</v>
       </c>
       <c r="H21" t="n">
         <v>36.10342522626458</v>
@@ -5832,22 +5832,22 @@
         <v>126.102135052085</v>
       </c>
       <c r="K21" t="n">
-        <v>406.4308839238591</v>
+        <v>126.102135052085</v>
       </c>
       <c r="L21" t="n">
-        <v>840.6109578579978</v>
+        <v>126.102135052085</v>
       </c>
       <c r="M21" t="n">
-        <v>840.6109578579978</v>
+        <v>572.8820222271091</v>
       </c>
       <c r="N21" t="n">
-        <v>840.6109578579978</v>
+        <v>996.1766675899484</v>
       </c>
       <c r="O21" t="n">
-        <v>1244.997107790243</v>
+        <v>1442.956554764972</v>
       </c>
       <c r="P21" t="n">
-        <v>1607.2118143385</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q21" t="n">
         <v>1805.171261313229</v>
@@ -5856,25 +5856,25 @@
         <v>1805.171261313229</v>
       </c>
       <c r="S21" t="n">
-        <v>1762.078993933497</v>
+        <v>1658.338344623123</v>
       </c>
       <c r="T21" t="n">
-        <v>1574.688642898321</v>
+        <v>1470.947993587947</v>
       </c>
       <c r="U21" t="n">
-        <v>1356.214983567341</v>
+        <v>1252.474334256967</v>
       </c>
       <c r="V21" t="n">
-        <v>1127.819361015675</v>
+        <v>1024.078711705301</v>
       </c>
       <c r="W21" t="n">
-        <v>886.5034922489853</v>
+        <v>782.7628429386115</v>
       </c>
       <c r="X21" t="n">
-        <v>688.5865041267798</v>
+        <v>762.5992342538399</v>
       </c>
       <c r="Y21" t="n">
-        <v>496.0651777763587</v>
+        <v>570.0779079034187</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>193.0817281799138</v>
+        <v>204.7538715584366</v>
       </c>
       <c r="C22" t="n">
-        <v>193.0817281799138</v>
+        <v>204.7538715584366</v>
       </c>
       <c r="D22" t="n">
-        <v>193.0817281799138</v>
+        <v>204.7538715584366</v>
       </c>
       <c r="E22" t="n">
-        <v>193.0817281799138</v>
+        <v>204.7538715584366</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0817281799138</v>
+        <v>204.7538715584366</v>
       </c>
       <c r="G22" t="n">
-        <v>193.0817281799138</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H22" t="n">
         <v>36.10342522626458</v>
@@ -5914,46 +5914,46 @@
         <v>100.3730120089408</v>
       </c>
       <c r="L22" t="n">
-        <v>240.221244450514</v>
+        <v>240.2212444505141</v>
       </c>
       <c r="M22" t="n">
-        <v>399.589044444532</v>
+        <v>399.5890444445321</v>
       </c>
       <c r="N22" t="n">
-        <v>558.4018918284991</v>
+        <v>558.4018918284992</v>
       </c>
       <c r="O22" t="n">
-        <v>694.1727076703025</v>
+        <v>694.1727076703028</v>
       </c>
       <c r="P22" t="n">
-        <v>789.0639197867024</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="Q22" t="n">
-        <v>789.0639197867024</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="R22" t="n">
-        <v>789.0639197867024</v>
+        <v>651.6509490891817</v>
       </c>
       <c r="S22" t="n">
-        <v>603.8106251993506</v>
+        <v>651.6509490891817</v>
       </c>
       <c r="T22" t="n">
-        <v>593.5131832995983</v>
+        <v>641.3535071894293</v>
       </c>
       <c r="U22" t="n">
-        <v>306.3376330050605</v>
+        <v>575.9088128977362</v>
       </c>
       <c r="V22" t="n">
-        <v>267.3331845663278</v>
+        <v>536.9043644590034</v>
       </c>
       <c r="W22" t="n">
-        <v>202.9076390865716</v>
+        <v>436.3106384679392</v>
       </c>
       <c r="X22" t="n">
-        <v>193.386030984792</v>
+        <v>205.0581743633149</v>
       </c>
       <c r="Y22" t="n">
-        <v>193.0817281799138</v>
+        <v>204.7538715584366</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>36.1034252262646</v>
       </c>
       <c r="J23" t="n">
-        <v>36.1034252262646</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="K23" t="n">
-        <v>36.1034252262646</v>
+        <v>473.0321469193356</v>
       </c>
       <c r="L23" t="n">
-        <v>476.8452645171565</v>
+        <v>473.0321469193356</v>
       </c>
       <c r="M23" t="n">
-        <v>923.6251516921808</v>
+        <v>483.4988764953449</v>
       </c>
       <c r="N23" t="n">
-        <v>1370.405038867205</v>
+        <v>930.2787636703692</v>
       </c>
       <c r="O23" t="n">
-        <v>1774.551108506821</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P23" t="n">
-        <v>1805.17126131323</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q23" t="n">
         <v>1805.17126131323</v>
@@ -6020,10 +6020,10 @@
         <v>1805.17126131323</v>
       </c>
       <c r="U23" t="n">
-        <v>1772.064810092613</v>
+        <v>1772.064810092614</v>
       </c>
       <c r="V23" t="n">
-        <v>1656.816391991399</v>
+        <v>1656.8163919914</v>
       </c>
       <c r="W23" t="n">
         <v>1516.012317851845</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>618.3675429883523</v>
+        <v>745.7617271007507</v>
       </c>
       <c r="C24" t="n">
-        <v>456.663870229307</v>
+        <v>584.0580543417054</v>
       </c>
       <c r="D24" t="n">
-        <v>317.825233219519</v>
+        <v>445.2194173319175</v>
       </c>
       <c r="E24" t="n">
-        <v>170.7972232763902</v>
+        <v>298.1914073887887</v>
       </c>
       <c r="F24" t="n">
-        <v>36.1034252262646</v>
+        <v>163.4976093386631</v>
       </c>
       <c r="G24" t="n">
-        <v>36.1034252262646</v>
+        <v>163.4976093386631</v>
       </c>
       <c r="H24" t="n">
-        <v>36.1034252262646</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I24" t="n">
         <v>36.1034252262646</v>
       </c>
       <c r="J24" t="n">
-        <v>36.1034252262646</v>
+        <v>126.1021350520851</v>
       </c>
       <c r="K24" t="n">
-        <v>36.1034252262646</v>
+        <v>406.4308839238593</v>
       </c>
       <c r="L24" t="n">
-        <v>470.2834991604033</v>
+        <v>840.6109578579981</v>
       </c>
       <c r="M24" t="n">
-        <v>917.0633863354276</v>
+        <v>840.6109578579981</v>
       </c>
       <c r="N24" t="n">
-        <v>1363.843273510452</v>
+        <v>840.6109578579981</v>
       </c>
       <c r="O24" t="n">
-        <v>1805.17126131323</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="P24" t="n">
-        <v>1805.17126131323</v>
+        <v>1607.211814338501</v>
       </c>
       <c r="Q24" t="n">
         <v>1805.17126131323</v>
       </c>
       <c r="R24" t="n">
-        <v>1805.17126131323</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S24" t="n">
-        <v>1805.17126131323</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="T24" t="n">
-        <v>1634.679594888731</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="U24" t="n">
-        <v>1416.205935557751</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.54116900893</v>
+        <v>1536.935353121328</v>
       </c>
       <c r="W24" t="n">
-        <v>1168.22530024224</v>
+        <v>1295.619484354638</v>
       </c>
       <c r="X24" t="n">
-        <v>970.3083121200344</v>
+        <v>1097.702496232433</v>
       </c>
       <c r="Y24" t="n">
-        <v>777.7869857696132</v>
+        <v>905.1811698820117</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.1034252262646</v>
+        <v>205.7193947645843</v>
       </c>
       <c r="C25" t="n">
         <v>36.1034252262646</v>
@@ -6148,49 +6148,49 @@
         <v>36.1034252262646</v>
       </c>
       <c r="K25" t="n">
-        <v>100.3730120089408</v>
+        <v>100.3730120089409</v>
       </c>
       <c r="L25" t="n">
-        <v>240.221244450514</v>
+        <v>240.2212444505141</v>
       </c>
       <c r="M25" t="n">
-        <v>399.589044444532</v>
+        <v>399.5890444445321</v>
       </c>
       <c r="N25" t="n">
-        <v>558.4018918284991</v>
+        <v>558.4018918284993</v>
       </c>
       <c r="O25" t="n">
-        <v>694.1727076703025</v>
+        <v>694.1727076703028</v>
       </c>
       <c r="P25" t="n">
-        <v>789.0639197867024</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="Q25" t="n">
-        <v>789.0639197867024</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="R25" t="n">
-        <v>789.0639197867024</v>
+        <v>651.6509490891817</v>
       </c>
       <c r="S25" t="n">
-        <v>789.0639197867024</v>
+        <v>442.6343911206674</v>
       </c>
       <c r="T25" t="n">
-        <v>658.2657363487938</v>
+        <v>432.3369492209149</v>
       </c>
       <c r="U25" t="n">
-        <v>592.8210420571007</v>
+        <v>366.8922549292218</v>
       </c>
       <c r="V25" t="n">
-        <v>553.816593618368</v>
+        <v>327.887806490489</v>
       </c>
       <c r="W25" t="n">
-        <v>489.3910481386117</v>
+        <v>263.4622610107327</v>
       </c>
       <c r="X25" t="n">
-        <v>258.1385840339875</v>
+        <v>206.0236975694626</v>
       </c>
       <c r="Y25" t="n">
-        <v>36.1034252262646</v>
+        <v>205.7193947645843</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1808.955690151403</v>
+        <v>1808.955690151402</v>
       </c>
       <c r="C26" t="n">
-        <v>1529.417336547162</v>
+        <v>1529.417336547161</v>
       </c>
       <c r="D26" t="n">
-        <v>1258.988776837337</v>
+        <v>1258.988776837336</v>
       </c>
       <c r="E26" t="n">
-        <v>966.5984620063959</v>
+        <v>966.598462006395</v>
       </c>
       <c r="F26" t="n">
-        <v>654.8426763795181</v>
+        <v>654.8426763795172</v>
       </c>
       <c r="G26" t="n">
-        <v>341.7344581784728</v>
+        <v>341.7344581784719</v>
       </c>
       <c r="H26" t="n">
         <v>117.4570592986184</v>
@@ -6224,16 +6224,16 @@
         <v>70.1807709925306</v>
       </c>
       <c r="J26" t="n">
-        <v>247.8996690285891</v>
+        <v>247.899669028588</v>
       </c>
       <c r="K26" t="n">
-        <v>562.8887695124166</v>
+        <v>562.8887695124156</v>
       </c>
       <c r="L26" t="n">
-        <v>1103.988345305508</v>
+        <v>1103.988345305507</v>
       </c>
       <c r="M26" t="n">
-        <v>1700.905958240506</v>
+        <v>1700.905958240505</v>
       </c>
       <c r="N26" t="n">
         <v>2284.587600719316</v>
@@ -6254,22 +6254,22 @@
         <v>3437.88575760419</v>
       </c>
       <c r="T26" t="n">
-        <v>3318.550306664298</v>
+        <v>3318.550306664297</v>
       </c>
       <c r="U26" t="n">
-        <v>3166.108404503789</v>
+        <v>3166.108404503788</v>
       </c>
       <c r="V26" t="n">
-        <v>2931.524535462682</v>
+        <v>2931.524535462681</v>
       </c>
       <c r="W26" t="n">
-        <v>2671.385010383235</v>
+        <v>2671.385010383234</v>
       </c>
       <c r="X26" t="n">
-        <v>2391.750274967681</v>
+        <v>2391.750274967679</v>
       </c>
       <c r="Y26" t="n">
-        <v>2100.60382460647</v>
+        <v>2100.603824606469</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>70.1807709925306</v>
       </c>
       <c r="J27" t="n">
-        <v>70.1807709925306</v>
+        <v>160.1794808183511</v>
       </c>
       <c r="K27" t="n">
-        <v>70.1807709925306</v>
+        <v>440.5082296901252</v>
       </c>
       <c r="L27" t="n">
-        <v>504.3608449266693</v>
+        <v>874.6883036242641</v>
       </c>
       <c r="M27" t="n">
-        <v>1069.165027155159</v>
+        <v>926.6887717745586</v>
       </c>
       <c r="N27" t="n">
-        <v>1662.312798467207</v>
+        <v>1519.836543086607</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.418896827602</v>
+        <v>1986.942641447002</v>
       </c>
       <c r="P27" t="n">
-        <v>2491.633603375858</v>
+        <v>2349.157347995259</v>
       </c>
       <c r="Q27" t="n">
         <v>2547.116794969988</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>442.3236065373153</v>
+        <v>442.3236065373152</v>
       </c>
       <c r="C28" t="n">
-        <v>375.1030420619475</v>
+        <v>375.1030420619473</v>
       </c>
       <c r="D28" t="n">
-        <v>324.4265539526621</v>
+        <v>324.4265539526619</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8129447769327</v>
+        <v>274.8129447769326</v>
       </c>
       <c r="F28" t="n">
-        <v>224.7276948656617</v>
+        <v>224.7276948656616</v>
       </c>
       <c r="G28" t="n">
-        <v>158.4726535964415</v>
+        <v>158.4726535964414</v>
       </c>
       <c r="H28" t="n">
         <v>103.8897557057442</v>
@@ -6388,16 +6388,16 @@
         <v>294.9645143651711</v>
       </c>
       <c r="L28" t="n">
-        <v>535.1704833089434</v>
+        <v>535.1704833089435</v>
       </c>
       <c r="M28" t="n">
-        <v>794.8960198051604</v>
+        <v>794.8960198051607</v>
       </c>
       <c r="N28" t="n">
         <v>1054.066603691327</v>
       </c>
       <c r="O28" t="n">
-        <v>1290.195156035329</v>
+        <v>1290.19515603533</v>
       </c>
       <c r="P28" t="n">
         <v>1485.444104653928</v>
@@ -6415,19 +6415,19 @@
         <v>1298.861423975047</v>
       </c>
       <c r="U28" t="n">
-        <v>1114.081278743461</v>
+        <v>1114.081278743462</v>
       </c>
       <c r="V28" t="n">
-        <v>955.7413793648358</v>
+        <v>955.741379364836</v>
       </c>
       <c r="W28" t="n">
-        <v>771.9803829451868</v>
+        <v>771.980382945187</v>
       </c>
       <c r="X28" t="n">
-        <v>643.1233239035143</v>
+        <v>643.1233239035146</v>
       </c>
       <c r="Y28" t="n">
-        <v>523.4835701587433</v>
+        <v>523.4835701587432</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1808.955690151403</v>
+        <v>1808.955690151402</v>
       </c>
       <c r="C29" t="n">
-        <v>1529.417336547162</v>
+        <v>1529.417336547161</v>
       </c>
       <c r="D29" t="n">
-        <v>1258.988776837337</v>
+        <v>1258.988776837336</v>
       </c>
       <c r="E29" t="n">
-        <v>966.5984620063959</v>
+        <v>966.5984620063947</v>
       </c>
       <c r="F29" t="n">
-        <v>654.8426763795178</v>
+        <v>654.8426763795169</v>
       </c>
       <c r="G29" t="n">
-        <v>341.7344581784718</v>
+        <v>341.7344581784715</v>
       </c>
       <c r="H29" t="n">
-        <v>117.4570592986185</v>
+        <v>117.4570592986184</v>
       </c>
       <c r="I29" t="n">
-        <v>70.18077099253061</v>
+        <v>70.18077099253058</v>
       </c>
       <c r="J29" t="n">
-        <v>292.478128703973</v>
+        <v>192.1203922017739</v>
       </c>
       <c r="K29" t="n">
-        <v>707.8249656899995</v>
+        <v>562.8887695124153</v>
       </c>
       <c r="L29" t="n">
-        <v>1152.473587063265</v>
+        <v>1103.988345305506</v>
       </c>
       <c r="M29" t="n">
-        <v>1749.391199998263</v>
+        <v>1700.905958240505</v>
       </c>
       <c r="N29" t="n">
-        <v>2333.072842477073</v>
+        <v>2284.587600719315</v>
       </c>
       <c r="O29" t="n">
-        <v>2837.576648618889</v>
+        <v>2789.091406861131</v>
       </c>
       <c r="P29" t="n">
-        <v>3250.706245447665</v>
+        <v>3202.221003689907</v>
       </c>
       <c r="Q29" t="n">
-        <v>3509.03854962653</v>
+        <v>3460.553307868772</v>
       </c>
       <c r="R29" t="n">
-        <v>3509.03854962653</v>
+        <v>3509.038549626529</v>
       </c>
       <c r="S29" t="n">
-        <v>3437.885757604191</v>
+        <v>3437.88575760419</v>
       </c>
       <c r="T29" t="n">
-        <v>3318.550306664298</v>
+        <v>3318.550306664297</v>
       </c>
       <c r="U29" t="n">
-        <v>3166.108404503789</v>
+        <v>3166.108404503788</v>
       </c>
       <c r="V29" t="n">
-        <v>2931.524535462682</v>
+        <v>2931.524535462681</v>
       </c>
       <c r="W29" t="n">
-        <v>2671.385010383235</v>
+        <v>2671.385010383234</v>
       </c>
       <c r="X29" t="n">
-        <v>2391.75027496768</v>
+        <v>2391.750274967679</v>
       </c>
       <c r="Y29" t="n">
-        <v>2100.60382460647</v>
+        <v>2100.603824606469</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>487.4400139892856</v>
       </c>
       <c r="F30" t="n">
-        <v>352.74621593916</v>
+        <v>352.7462159391599</v>
       </c>
       <c r="G30" t="n">
-        <v>224.3389386372382</v>
+        <v>224.3389386372381</v>
       </c>
       <c r="H30" t="n">
         <v>127.50341596418</v>
       </c>
       <c r="I30" t="n">
-        <v>70.18077099253061</v>
+        <v>70.18077099253058</v>
       </c>
       <c r="J30" t="n">
-        <v>70.18077099253061</v>
+        <v>160.179480818351</v>
       </c>
       <c r="K30" t="n">
-        <v>70.18077099253061</v>
+        <v>440.5082296901252</v>
       </c>
       <c r="L30" t="n">
-        <v>504.3608449266693</v>
+        <v>874.6883036242639</v>
       </c>
       <c r="M30" t="n">
-        <v>1069.165027155159</v>
+        <v>926.6887717745586</v>
       </c>
       <c r="N30" t="n">
-        <v>1662.312798467207</v>
+        <v>1519.836543086607</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.418896827602</v>
+        <v>1986.942641447002</v>
       </c>
       <c r="P30" t="n">
-        <v>2491.633603375858</v>
+        <v>2349.157347995259</v>
       </c>
       <c r="Q30" t="n">
         <v>2547.116794969988</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>442.3236065373151</v>
+        <v>442.3236065373152</v>
       </c>
       <c r="C31" t="n">
-        <v>375.1030420619472</v>
+        <v>375.1030420619473</v>
       </c>
       <c r="D31" t="n">
         <v>324.4265539526618</v>
@@ -6613,31 +6613,31 @@
         <v>158.4726535964413</v>
       </c>
       <c r="H31" t="n">
-        <v>103.8897557057442</v>
+        <v>103.8897557057439</v>
       </c>
       <c r="I31" t="n">
-        <v>70.18077099253061</v>
+        <v>70.18077099253058</v>
       </c>
       <c r="J31" t="n">
-        <v>130.3371910802957</v>
+        <v>130.3371910802956</v>
       </c>
       <c r="K31" t="n">
-        <v>294.9645143651709</v>
+        <v>294.9645143651711</v>
       </c>
       <c r="L31" t="n">
-        <v>535.1704833089432</v>
+        <v>535.1704833089434</v>
       </c>
       <c r="M31" t="n">
-        <v>794.8960198051602</v>
+        <v>794.8960198051604</v>
       </c>
       <c r="N31" t="n">
-        <v>1054.066603691326</v>
+        <v>1054.066603691327</v>
       </c>
       <c r="O31" t="n">
-        <v>1290.195156035329</v>
+        <v>1290.19515603533</v>
       </c>
       <c r="P31" t="n">
-        <v>1485.444104653928</v>
+        <v>1485.444104653929</v>
       </c>
       <c r="Q31" t="n">
         <v>1570.133035354824</v>
@@ -6646,25 +6646,25 @@
         <v>1535.115469720255</v>
       </c>
       <c r="S31" t="n">
-        <v>1428.494316814692</v>
+        <v>1428.494316814693</v>
       </c>
       <c r="T31" t="n">
         <v>1298.861423975047</v>
       </c>
       <c r="U31" t="n">
-        <v>1114.081278743461</v>
+        <v>1114.081278743462</v>
       </c>
       <c r="V31" t="n">
-        <v>955.7413793648357</v>
+        <v>955.7413793648359</v>
       </c>
       <c r="W31" t="n">
-        <v>771.9803829451866</v>
+        <v>771.9803829451869</v>
       </c>
       <c r="X31" t="n">
-        <v>643.1233239035142</v>
+        <v>643.1233239035145</v>
       </c>
       <c r="Y31" t="n">
-        <v>523.4835701587431</v>
+        <v>523.4835701587432</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1808.955690151401</v>
+        <v>1808.955690151402</v>
       </c>
       <c r="C32" t="n">
         <v>1529.417336547161</v>
@@ -6683,13 +6683,13 @@
         <v>1258.988776837336</v>
       </c>
       <c r="E32" t="n">
-        <v>966.5984620063948</v>
+        <v>966.5984620063947</v>
       </c>
       <c r="F32" t="n">
-        <v>654.8426763795171</v>
+        <v>654.8426763795169</v>
       </c>
       <c r="G32" t="n">
-        <v>341.7344581784719</v>
+        <v>341.7344581784715</v>
       </c>
       <c r="H32" t="n">
         <v>117.4570592986184</v>
@@ -6701,7 +6701,7 @@
         <v>292.478128703973</v>
       </c>
       <c r="K32" t="n">
-        <v>707.8249656899997</v>
+        <v>707.8249656899998</v>
       </c>
       <c r="L32" t="n">
         <v>1204.346081807706</v>
@@ -6710,7 +6710,7 @@
         <v>1700.905958240505</v>
       </c>
       <c r="N32" t="n">
-        <v>2284.587600719316</v>
+        <v>2284.587600719315</v>
       </c>
       <c r="O32" t="n">
         <v>2789.091406861131</v>
@@ -6719,25 +6719,25 @@
         <v>3202.221003689907</v>
       </c>
       <c r="Q32" t="n">
-        <v>3460.553307868773</v>
+        <v>3460.553307868772</v>
       </c>
       <c r="R32" t="n">
         <v>3509.038549626529</v>
       </c>
       <c r="S32" t="n">
-        <v>3437.88575760419</v>
+        <v>3437.885757604189</v>
       </c>
       <c r="T32" t="n">
-        <v>3318.550306664297</v>
+        <v>3318.550306664296</v>
       </c>
       <c r="U32" t="n">
-        <v>3166.108404503787</v>
+        <v>3166.108404503788</v>
       </c>
       <c r="V32" t="n">
-        <v>2931.52453546268</v>
+        <v>2931.524535462681</v>
       </c>
       <c r="W32" t="n">
-        <v>2671.385010383233</v>
+        <v>2671.385010383234</v>
       </c>
       <c r="X32" t="n">
         <v>2391.750274967679</v>
@@ -6765,10 +6765,10 @@
         <v>487.4400139892856</v>
       </c>
       <c r="F33" t="n">
-        <v>352.74621593916</v>
+        <v>352.7462159391599</v>
       </c>
       <c r="G33" t="n">
-        <v>224.3389386372382</v>
+        <v>224.3389386372381</v>
       </c>
       <c r="H33" t="n">
         <v>127.50341596418</v>
@@ -6777,16 +6777,16 @@
         <v>70.18077099253058</v>
       </c>
       <c r="J33" t="n">
-        <v>81.55584067429538</v>
+        <v>70.18077099253058</v>
       </c>
       <c r="K33" t="n">
-        <v>361.8845895460695</v>
+        <v>350.5095198643048</v>
       </c>
       <c r="L33" t="n">
-        <v>361.8845895460695</v>
+        <v>784.6895937984435</v>
       </c>
       <c r="M33" t="n">
-        <v>926.688771774559</v>
+        <v>1349.493776026933</v>
       </c>
       <c r="N33" t="n">
         <v>1519.836543086607</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442.323606537315</v>
+        <v>442.3236065373152</v>
       </c>
       <c r="C34" t="n">
-        <v>375.1030420619472</v>
+        <v>375.1030420619473</v>
       </c>
       <c r="D34" t="n">
-        <v>324.4265539526618</v>
+        <v>324.4265539526619</v>
       </c>
       <c r="E34" t="n">
-        <v>274.8129447769325</v>
+        <v>274.8129447769327</v>
       </c>
       <c r="F34" t="n">
-        <v>224.7276948656615</v>
+        <v>224.7276948656616</v>
       </c>
       <c r="G34" t="n">
-        <v>158.4726535964414</v>
+        <v>158.4726535964415</v>
       </c>
       <c r="H34" t="n">
-        <v>103.8897557057444</v>
+        <v>103.8897557057441</v>
       </c>
       <c r="I34" t="n">
         <v>70.18077099253058</v>
@@ -6859,10 +6859,10 @@
         <v>130.3371910802957</v>
       </c>
       <c r="K34" t="n">
-        <v>294.9645143651706</v>
+        <v>294.9645143651711</v>
       </c>
       <c r="L34" t="n">
-        <v>535.1704833089429</v>
+        <v>535.1704833089431</v>
       </c>
       <c r="M34" t="n">
         <v>794.8960198051602</v>
@@ -6877,10 +6877,10 @@
         <v>1485.444104653928</v>
       </c>
       <c r="Q34" t="n">
-        <v>1570.133035354823</v>
+        <v>1570.133035354824</v>
       </c>
       <c r="R34" t="n">
-        <v>1535.115469720254</v>
+        <v>1535.115469720255</v>
       </c>
       <c r="S34" t="n">
         <v>1428.494316814692</v>
@@ -6898,10 +6898,10 @@
         <v>771.9803829451866</v>
       </c>
       <c r="X34" t="n">
-        <v>643.123323903514</v>
+        <v>643.1233239035142</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.483570158743</v>
+        <v>523.4835701587432</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1350.05743147764</v>
+        <v>1350.057431477638</v>
       </c>
       <c r="C35" t="n">
-        <v>1135.850896898431</v>
+        <v>1135.85089689843</v>
       </c>
       <c r="D35" t="n">
-        <v>930.7541562136389</v>
+        <v>930.7541562136382</v>
       </c>
       <c r="E35" t="n">
-        <v>703.6956604077299</v>
+        <v>703.6956604077293</v>
       </c>
       <c r="F35" t="n">
-        <v>457.2716938058843</v>
+        <v>457.2716938058838</v>
       </c>
       <c r="G35" t="n">
         <v>209.4952946298711</v>
@@ -6935,16 +6935,16 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J35" t="n">
-        <v>172.4893359842934</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K35" t="n">
-        <v>487.4784364681209</v>
+        <v>365.5388152588778</v>
       </c>
       <c r="L35" t="n">
-        <v>928.2202757590128</v>
+        <v>672.7094587002373</v>
       </c>
       <c r="M35" t="n">
-        <v>1169.269335133037</v>
+        <v>1169.269335133036</v>
       </c>
       <c r="N35" t="n">
         <v>1652.593241109648</v>
@@ -6962,25 +6962,25 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S35" t="n">
-        <v>2521.664765755201</v>
+        <v>2521.6647657552</v>
       </c>
       <c r="T35" t="n">
-        <v>2467.661133840341</v>
+        <v>2467.66113384034</v>
       </c>
       <c r="U35" t="n">
-        <v>2380.551050704865</v>
+        <v>2380.551050704863</v>
       </c>
       <c r="V35" t="n">
-        <v>2211.29900068879</v>
+        <v>2211.299000688789</v>
       </c>
       <c r="W35" t="n">
-        <v>2016.491294634375</v>
+        <v>2016.491294634374</v>
       </c>
       <c r="X35" t="n">
-        <v>1802.188378243853</v>
+        <v>1802.188378243851</v>
       </c>
       <c r="Y35" t="n">
-        <v>1576.373746907675</v>
+        <v>1576.373746907673</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.3792774837677</v>
+        <v>915.3792774837672</v>
       </c>
       <c r="C36" t="n">
-        <v>753.6756047247225</v>
+        <v>753.6756047247219</v>
       </c>
       <c r="D36" t="n">
-        <v>614.8369677149345</v>
+        <v>614.836967714934</v>
       </c>
       <c r="E36" t="n">
-        <v>467.8089577718052</v>
+        <v>467.8089577718051</v>
       </c>
       <c r="F36" t="n">
-        <v>333.1151597216796</v>
+        <v>333.1151597216795</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7078824197578</v>
+        <v>204.7078824197577</v>
       </c>
       <c r="H36" t="n">
-        <v>107.8723597466996</v>
+        <v>107.8723597466995</v>
       </c>
       <c r="I36" t="n">
         <v>50.54971477505016</v>
       </c>
       <c r="J36" t="n">
-        <v>50.54971477505016</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="K36" t="n">
-        <v>50.54971477505016</v>
+        <v>420.8771734726448</v>
       </c>
       <c r="L36" t="n">
-        <v>484.7297887091889</v>
+        <v>855.0572474067835</v>
       </c>
       <c r="M36" t="n">
-        <v>1049.533970937678</v>
+        <v>1419.861429635273</v>
       </c>
       <c r="N36" t="n">
-        <v>1642.681742249727</v>
+        <v>1967.311585229522</v>
       </c>
       <c r="O36" t="n">
-        <v>2109.787840610122</v>
+        <v>1967.311585229522</v>
       </c>
       <c r="P36" t="n">
-        <v>2472.002547158378</v>
+        <v>2329.526291777779</v>
       </c>
       <c r="Q36" t="n">
         <v>2527.485738752508</v>
@@ -7056,10 +7056,10 @@
         <v>1465.237034737655</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.32004661545</v>
+        <v>1267.320046615449</v>
       </c>
       <c r="Y36" t="n">
-        <v>1074.798720265029</v>
+        <v>1074.798720265028</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.37924844695759</v>
+        <v>65.64567426482316</v>
       </c>
       <c r="C37" t="n">
-        <v>92.490502996622</v>
+        <v>63.75692881448762</v>
       </c>
       <c r="D37" t="n">
-        <v>92.490502996622</v>
+        <v>63.75692881448762</v>
       </c>
       <c r="E37" t="n">
-        <v>92.490502996622</v>
+        <v>63.75692881448762</v>
       </c>
       <c r="F37" t="n">
-        <v>92.490502996622</v>
+        <v>63.75692881448762</v>
       </c>
       <c r="G37" t="n">
-        <v>91.5672807524341</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="H37" t="n">
-        <v>91.5672807524341</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I37" t="n">
-        <v>91.5672807524341</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J37" t="n">
         <v>50.54971477505016</v>
@@ -7102,43 +7102,43 @@
         <v>254.6675339992996</v>
       </c>
       <c r="M37" t="n">
-        <v>414.0353339933175</v>
+        <v>414.0353339933177</v>
       </c>
       <c r="N37" t="n">
-        <v>572.8481813772846</v>
+        <v>572.8481813772848</v>
       </c>
       <c r="O37" t="n">
-        <v>708.6189972190881</v>
+        <v>708.6189972190884</v>
       </c>
       <c r="P37" t="n">
-        <v>803.510209335488</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="Q37" t="n">
-        <v>803.510209335488</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="R37" t="n">
-        <v>803.510209335488</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="S37" t="n">
-        <v>762.2208754549578</v>
+        <v>762.2208754549581</v>
       </c>
       <c r="T37" t="n">
-        <v>697.9198016403448</v>
+        <v>697.9198016403452</v>
       </c>
       <c r="U37" t="n">
-        <v>578.4714754337912</v>
+        <v>578.4714754337917</v>
       </c>
       <c r="V37" t="n">
-        <v>485.4633950801979</v>
+        <v>485.4633950801985</v>
       </c>
       <c r="W37" t="n">
-        <v>228.0405677797322</v>
+        <v>367.0342176855818</v>
       </c>
       <c r="X37" t="n">
-        <v>164.5153277630921</v>
+        <v>303.5089776689417</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.2073930433533</v>
+        <v>249.201042949203</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>1350.057431477639</v>
       </c>
       <c r="C38" t="n">
-        <v>1135.850896898431</v>
+        <v>1135.85089689843</v>
       </c>
       <c r="D38" t="n">
-        <v>930.7541562136385</v>
+        <v>930.754156213638</v>
       </c>
       <c r="E38" t="n">
-        <v>703.6956604077293</v>
+        <v>703.695660407729</v>
       </c>
       <c r="F38" t="n">
-        <v>457.2716938058838</v>
+        <v>457.2716938058834</v>
       </c>
       <c r="G38" t="n">
         <v>209.4952946298711</v>
@@ -7175,13 +7175,13 @@
         <v>50.54971477505016</v>
       </c>
       <c r="K38" t="n">
-        <v>231.9676194093459</v>
+        <v>365.5388152588778</v>
       </c>
       <c r="L38" t="n">
-        <v>672.7094587002377</v>
+        <v>672.7094587002373</v>
       </c>
       <c r="M38" t="n">
-        <v>1169.269335133037</v>
+        <v>1169.269335133036</v>
       </c>
       <c r="N38" t="n">
         <v>1652.593241109648</v>
@@ -7199,19 +7199,19 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S38" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T38" t="n">
         <v>2467.66113384034</v>
       </c>
       <c r="U38" t="n">
-        <v>2380.551050704864</v>
+        <v>2380.551050704863</v>
       </c>
       <c r="V38" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W38" t="n">
-        <v>2016.491294634375</v>
+        <v>2016.491294634374</v>
       </c>
       <c r="X38" t="n">
         <v>1802.188378243852</v>
@@ -7236,37 +7236,37 @@
         <v>614.836967714934</v>
       </c>
       <c r="E39" t="n">
-        <v>467.8089577718052</v>
+        <v>467.8089577718051</v>
       </c>
       <c r="F39" t="n">
-        <v>333.1151597216796</v>
+        <v>333.1151597216795</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7078824197578</v>
+        <v>204.7078824197577</v>
       </c>
       <c r="H39" t="n">
-        <v>107.8723597466996</v>
+        <v>107.8723597466995</v>
       </c>
       <c r="I39" t="n">
         <v>50.54971477505016</v>
       </c>
       <c r="J39" t="n">
-        <v>50.54971477505016</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="K39" t="n">
-        <v>50.54971477505016</v>
+        <v>420.8771734726448</v>
       </c>
       <c r="L39" t="n">
-        <v>484.7297887091889</v>
+        <v>855.0572474067835</v>
       </c>
       <c r="M39" t="n">
-        <v>1049.533970937678</v>
+        <v>1419.861429635273</v>
       </c>
       <c r="N39" t="n">
-        <v>1500.205486869128</v>
+        <v>1500.205486869127</v>
       </c>
       <c r="O39" t="n">
-        <v>1967.311585229523</v>
+        <v>1967.311585229522</v>
       </c>
       <c r="P39" t="n">
         <v>2329.526291777779</v>
@@ -7275,13 +7275,13 @@
         <v>2527.485738752508</v>
       </c>
       <c r="R39" t="n">
-        <v>2487.645453112272</v>
+        <v>2487.645453112273</v>
       </c>
       <c r="S39" t="n">
         <v>2340.812536422166</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.42218538699</v>
+        <v>2153.422185386991</v>
       </c>
       <c r="U39" t="n">
         <v>1934.948526056011</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>233.372898352807</v>
+        <v>53.36168246957365</v>
       </c>
       <c r="C40" t="n">
-        <v>231.4841529024715</v>
+        <v>51.47293701923806</v>
       </c>
       <c r="D40" t="n">
-        <v>231.4841529024715</v>
+        <v>51.47293701923806</v>
       </c>
       <c r="E40" t="n">
-        <v>231.4841529024715</v>
+        <v>51.47293701923806</v>
       </c>
       <c r="F40" t="n">
-        <v>231.4841529024715</v>
+        <v>51.47293701923806</v>
       </c>
       <c r="G40" t="n">
-        <v>62.83370657029946</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="H40" t="n">
         <v>50.54971477505016</v>
@@ -7339,43 +7339,43 @@
         <v>254.6675339992996</v>
       </c>
       <c r="M40" t="n">
-        <v>414.0353339933175</v>
+        <v>414.0353339933177</v>
       </c>
       <c r="N40" t="n">
-        <v>572.8481813772846</v>
+        <v>572.8481813772848</v>
       </c>
       <c r="O40" t="n">
-        <v>708.6189972190881</v>
+        <v>708.6189972190884</v>
       </c>
       <c r="P40" t="n">
-        <v>803.510209335488</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="Q40" t="n">
-        <v>803.510209335488</v>
+        <v>791.2262175402391</v>
       </c>
       <c r="R40" t="n">
-        <v>803.510209335488</v>
+        <v>791.2262175402391</v>
       </c>
       <c r="S40" t="n">
-        <v>762.2208754549578</v>
+        <v>749.9368836597089</v>
       </c>
       <c r="T40" t="n">
-        <v>697.9198016403449</v>
+        <v>685.635809845096</v>
       </c>
       <c r="U40" t="n">
-        <v>578.4714754337914</v>
+        <v>566.1874836385424</v>
       </c>
       <c r="V40" t="n">
-        <v>485.4633950801982</v>
+        <v>473.1794032849492</v>
       </c>
       <c r="W40" t="n">
-        <v>367.0342176855814</v>
+        <v>187.0230018023483</v>
       </c>
       <c r="X40" t="n">
-        <v>303.5089776689414</v>
+        <v>123.4977617857081</v>
       </c>
       <c r="Y40" t="n">
-        <v>249.2010429492026</v>
+        <v>69.18982706596935</v>
       </c>
     </row>
     <row r="41">
@@ -7409,16 +7409,16 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J41" t="n">
-        <v>172.4893359842934</v>
+        <v>172.4893359842935</v>
       </c>
       <c r="K41" t="n">
-        <v>487.4784364681209</v>
+        <v>487.4784364681211</v>
       </c>
       <c r="L41" t="n">
-        <v>928.2202757590128</v>
+        <v>928.220275759013</v>
       </c>
       <c r="M41" t="n">
-        <v>1169.269335133037</v>
+        <v>1169.269335133036</v>
       </c>
       <c r="N41" t="n">
         <v>1652.593241109648</v>
@@ -7436,7 +7436,7 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S41" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T41" t="n">
         <v>2467.66113384034</v>
@@ -7451,10 +7451,10 @@
         <v>2016.491294634374</v>
       </c>
       <c r="X41" t="n">
-        <v>1802.188378243851</v>
+        <v>1802.188378243852</v>
       </c>
       <c r="Y41" t="n">
-        <v>1576.373746907673</v>
+        <v>1576.373746907674</v>
       </c>
     </row>
     <row r="42">
@@ -7473,16 +7473,16 @@
         <v>614.836967714934</v>
       </c>
       <c r="E42" t="n">
-        <v>467.8089577718052</v>
+        <v>467.8089577718051</v>
       </c>
       <c r="F42" t="n">
-        <v>333.1151597216796</v>
+        <v>333.1151597216795</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7078824197578</v>
+        <v>204.7078824197577</v>
       </c>
       <c r="H42" t="n">
-        <v>107.8723597466996</v>
+        <v>107.8723597466995</v>
       </c>
       <c r="I42" t="n">
         <v>50.54971477505016</v>
@@ -7491,19 +7491,19 @@
         <v>140.5484246008706</v>
       </c>
       <c r="K42" t="n">
-        <v>270.2881659427068</v>
+        <v>420.8771734726448</v>
       </c>
       <c r="L42" t="n">
-        <v>704.4682398768455</v>
+        <v>855.0572474067835</v>
       </c>
       <c r="M42" t="n">
-        <v>1269.272422105335</v>
+        <v>907.0577155570783</v>
       </c>
       <c r="N42" t="n">
-        <v>1862.420193417383</v>
+        <v>1500.205486869127</v>
       </c>
       <c r="O42" t="n">
-        <v>2329.526291777778</v>
+        <v>1967.311585229522</v>
       </c>
       <c r="P42" t="n">
         <v>2329.526291777778</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>233.372898352807</v>
+        <v>94.37924844695746</v>
       </c>
       <c r="C43" t="n">
-        <v>231.4841529024715</v>
+        <v>92.49050299662193</v>
       </c>
       <c r="D43" t="n">
-        <v>231.4841529024715</v>
+        <v>92.49050299662193</v>
       </c>
       <c r="E43" t="n">
-        <v>92.49050299662194</v>
+        <v>92.49050299662193</v>
       </c>
       <c r="F43" t="n">
-        <v>92.49050299662194</v>
+        <v>92.49050299662193</v>
       </c>
       <c r="G43" t="n">
-        <v>91.5672807524341</v>
+        <v>91.56728075243409</v>
       </c>
       <c r="H43" t="n">
-        <v>91.5672807524341</v>
+        <v>91.56728075243409</v>
       </c>
       <c r="I43" t="n">
-        <v>91.5672807524341</v>
+        <v>91.56728075243409</v>
       </c>
       <c r="J43" t="n">
         <v>50.54971477505016</v>
@@ -7576,43 +7576,43 @@
         <v>254.6675339992996</v>
       </c>
       <c r="M43" t="n">
-        <v>414.0353339933175</v>
+        <v>414.0353339933177</v>
       </c>
       <c r="N43" t="n">
-        <v>572.8481813772846</v>
+        <v>572.8481813772848</v>
       </c>
       <c r="O43" t="n">
-        <v>708.6189972190881</v>
+        <v>708.6189972190884</v>
       </c>
       <c r="P43" t="n">
-        <v>803.510209335488</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="Q43" t="n">
-        <v>803.510209335488</v>
+        <v>787.5232633082428</v>
       </c>
       <c r="R43" t="n">
-        <v>803.510209335488</v>
+        <v>787.5232633082428</v>
       </c>
       <c r="S43" t="n">
-        <v>762.2208754549578</v>
+        <v>746.2339294277126</v>
       </c>
       <c r="T43" t="n">
-        <v>697.9198016403449</v>
+        <v>681.9328556130997</v>
       </c>
       <c r="U43" t="n">
-        <v>578.4714754337914</v>
+        <v>562.4845294065462</v>
       </c>
       <c r="V43" t="n">
-        <v>485.4633950801982</v>
+        <v>346.4697451743486</v>
       </c>
       <c r="W43" t="n">
-        <v>367.0342176855814</v>
+        <v>228.0405677797319</v>
       </c>
       <c r="X43" t="n">
-        <v>303.5089776689414</v>
+        <v>164.5153277630918</v>
       </c>
       <c r="Y43" t="n">
-        <v>249.2010429492026</v>
+        <v>110.2073930433531</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>703.6956604077297</v>
       </c>
       <c r="F44" t="n">
-        <v>457.2716938058844</v>
+        <v>457.2716938058843</v>
       </c>
       <c r="G44" t="n">
         <v>209.495294629871</v>
@@ -7646,25 +7646,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J44" t="n">
-        <v>50.54971477505016</v>
+        <v>172.4893359842935</v>
       </c>
       <c r="K44" t="n">
-        <v>365.5388152588777</v>
+        <v>487.4784364681211</v>
       </c>
       <c r="L44" t="n">
-        <v>672.7094587002377</v>
+        <v>928.220275759013</v>
       </c>
       <c r="M44" t="n">
-        <v>1169.269335133037</v>
+        <v>1424.780152191812</v>
       </c>
       <c r="N44" t="n">
-        <v>1652.593241109648</v>
+        <v>1908.104058168424</v>
       </c>
       <c r="O44" t="n">
-        <v>2056.739310749264</v>
+        <v>2312.25012780804</v>
       </c>
       <c r="P44" t="n">
-        <v>2369.511171075842</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="Q44" t="n">
         <v>2527.485738752508</v>
@@ -7719,7 +7719,7 @@
         <v>204.7078824197579</v>
       </c>
       <c r="H45" t="n">
-        <v>107.8723597466996</v>
+        <v>107.8723597466995</v>
       </c>
       <c r="I45" t="n">
         <v>50.54971477505016</v>
@@ -7728,19 +7728,19 @@
         <v>140.5484246008706</v>
       </c>
       <c r="K45" t="n">
-        <v>420.8771734726447</v>
+        <v>420.8771734726448</v>
       </c>
       <c r="L45" t="n">
-        <v>809.3596316889848</v>
+        <v>855.0572474067835</v>
       </c>
       <c r="M45" t="n">
-        <v>1374.163813917474</v>
+        <v>1419.861429635273</v>
       </c>
       <c r="N45" t="n">
-        <v>1967.311585229523</v>
+        <v>1500.205486869127</v>
       </c>
       <c r="O45" t="n">
-        <v>1967.311585229523</v>
+        <v>1967.311585229522</v>
       </c>
       <c r="P45" t="n">
         <v>2329.526291777779</v>
@@ -7813,28 +7813,28 @@
         <v>254.6675339992996</v>
       </c>
       <c r="M46" t="n">
-        <v>414.0353339933175</v>
+        <v>414.0353339933177</v>
       </c>
       <c r="N46" t="n">
-        <v>572.8481813772846</v>
+        <v>572.8481813772848</v>
       </c>
       <c r="O46" t="n">
-        <v>708.6189972190881</v>
+        <v>708.6189972190884</v>
       </c>
       <c r="P46" t="n">
-        <v>803.510209335488</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="Q46" t="n">
-        <v>803.510209335488</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="R46" t="n">
-        <v>803.510209335488</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="S46" t="n">
-        <v>762.2208754549579</v>
+        <v>594.4936513669739</v>
       </c>
       <c r="T46" t="n">
-        <v>530.1925775523608</v>
+        <v>517.9085857571107</v>
       </c>
       <c r="U46" t="n">
         <v>398.4602595505573</v>
@@ -8693,22 +8693,22 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>97.76580185407863</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>534.0847761085864</v>
+        <v>82.79196078027913</v>
       </c>
       <c r="N11" t="n">
-        <v>531.6378514309458</v>
+        <v>97.01652848661914</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>137.1882297922725</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.4392174774052</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968254</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,13 +8775,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>34.90730789672777</v>
+        <v>82.99313878868884</v>
       </c>
       <c r="N12" t="n">
-        <v>24.00592370515639</v>
+        <v>24.00592370515628</v>
       </c>
       <c r="O12" t="n">
-        <v>448.6675317989914</v>
+        <v>491.4894886098788</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>96.65426516890474</v>
+        <v>96.65426516890467</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8933,19 +8933,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>82.79196078027927</v>
+        <v>534.0847761085863</v>
       </c>
       <c r="N14" t="n">
-        <v>531.6378514309458</v>
+        <v>531.6378514309456</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>86.81188247023907</v>
       </c>
       <c r="P14" t="n">
-        <v>266.4586026138639</v>
+        <v>223.3941404568861</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.4392174774052</v>
+        <v>116.4392174774051</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968254</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>43.5267176478922</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>486.200123225035</v>
+        <v>34.90730789672766</v>
       </c>
       <c r="N15" t="n">
-        <v>419.7496981408735</v>
+        <v>475.2987390334634</v>
       </c>
       <c r="O15" t="n">
-        <v>40.19667328157175</v>
+        <v>491.4894886098788</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>210.7536521437836</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839248</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>96.65426516890474</v>
+        <v>96.65426516890467</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9170,19 +9170,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>82.79196078027927</v>
+        <v>339.1405959425449</v>
       </c>
       <c r="N17" t="n">
-        <v>220.1878630414111</v>
+        <v>531.6378514309456</v>
       </c>
       <c r="O17" t="n">
-        <v>495.0402356415689</v>
+        <v>86.81188247023907</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>116.4392174774051</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>73.01055823968258</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>60.6444557206208</v>
+        <v>60.64445572062073</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>486.200123225035</v>
+        <v>475.2047408297827</v>
       </c>
       <c r="N18" t="n">
-        <v>103.9183290127533</v>
+        <v>24.00592370515628</v>
       </c>
       <c r="O18" t="n">
-        <v>491.4894886098789</v>
+        <v>491.4894886098788</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.14143670839252</v>
+        <v>73.14143670839248</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>96.65426516890474</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>103.2182277729914</v>
+        <v>302.6988854452356</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>534.0847761085864</v>
+        <v>82.79196078027913</v>
       </c>
       <c r="N20" t="n">
-        <v>531.6378514309458</v>
+        <v>531.6378514309456</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>133.3365958550796</v>
+        <v>102.4071485758795</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.4392174774052</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,25 +9480,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062073</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>43.5267176478921</v>
       </c>
       <c r="M21" t="n">
-        <v>34.90730789672777</v>
+        <v>486.2001232250349</v>
       </c>
       <c r="N21" t="n">
-        <v>24.00592370515639</v>
+        <v>451.576272556509</v>
       </c>
       <c r="O21" t="n">
-        <v>448.6675317989914</v>
+        <v>491.4894886098788</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839248</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>96.65426516890474</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>103.2182277729914</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>542.9595789155856</v>
+        <v>97.7658018540785</v>
       </c>
       <c r="M23" t="n">
-        <v>534.0847761085867</v>
+        <v>93.36441489746029</v>
       </c>
       <c r="N23" t="n">
-        <v>531.6378514309461</v>
+        <v>531.6378514309458</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>133.3365958550798</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>116.4392174774052</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>73.01055823968258</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>60.6444557206208</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>486.2001232250352</v>
+        <v>34.90730789672766</v>
       </c>
       <c r="N24" t="n">
-        <v>475.2987390334638</v>
+        <v>24.00592370515628</v>
       </c>
       <c r="O24" t="n">
-        <v>485.9825195470037</v>
+        <v>448.6675317989919</v>
       </c>
       <c r="P24" t="n">
-        <v>48.1281582740837</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.14143670839252</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,16 +9951,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>73.01055823968258</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>60.6444557206208</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>87.43303330106556</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>129.1850645812506</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>73.01055823968258</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>60.6444557206208</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>87.43303330106582</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>129.1850645812506</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,19 +10425,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>84.50052761520259</v>
+        <v>73.01055823968254</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>43.5267176478922</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>196.0693247755341</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>96.65426516890469</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>542.9595789155856</v>
+        <v>408.039179067573</v>
       </c>
       <c r="M35" t="n">
-        <v>326.2758591378793</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>73.01055823968258</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>60.6444557206208</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,16 +10674,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>576.9858788508626</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>40.19667328157166</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>129.1850645812511</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>96.65426516890474</v>
+        <v>96.65426516890469</v>
       </c>
       <c r="K38" t="n">
-        <v>286.4686364945022</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>408.039179067573</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>73.01055823968258</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>60.6444557206208</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.2296771712672</v>
+        <v>105.1615370726859</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11066,7 +11066,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>326.2758591378793</v>
+        <v>326.2758591378784</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11139,13 +11139,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>191.6946995002533</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>605.4165828749999</v>
+        <v>87.43303330106582</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11154,7 +11154,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>48.1281582740837</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>96.65426516890474</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>408.0391790675736</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11312,10 +11312,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>319.8168566005948</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>116.4392174774051</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11379,16 +11379,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>435.9332410987408</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>105.1615370726859</v>
       </c>
       <c r="O45" t="n">
-        <v>40.19667328157175</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.8850331288904</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>248.8963500865722</v>
       </c>
       <c r="D11" t="n">
-        <v>239.8776541311002</v>
+        <v>239.8776541311001</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.6197917010057</v>
       </c>
       <c r="F11" t="n">
-        <v>280.7916077889829</v>
+        <v>280.7916077889828</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5506878925566959</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>204.3914103690696</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>204.20733968951</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>248.8963500865722</v>
+        <v>248.8963500865721</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>239.8776541311001</v>
       </c>
       <c r="E14" t="n">
-        <v>18.80516968866984</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>280.7916077889829</v>
+        <v>37.61792979536739</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>194.1880049094285</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>18.95690544140081</v>
+        <v>18.95690544140072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>42.59464412049027</v>
       </c>
       <c r="T14" t="n">
-        <v>90.2954764488677</v>
+        <v>90.29547644886762</v>
       </c>
       <c r="U14" t="n">
-        <v>123.0708631572777</v>
+        <v>123.0708631572776</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>204.3914103690695</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>229.6915098470264</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.3883658759719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888070.5664861463</v>
+        <v>888070.5664861464</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888070.5664861463</v>
+        <v>888070.5664861465</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>996241.5550980024</v>
+        <v>996241.5550980023</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>497819.8104797477</v>
+        <v>497819.8104797478</v>
       </c>
       <c r="C2" t="n">
-        <v>497819.8104797477</v>
+        <v>497819.8104797478</v>
       </c>
       <c r="D2" t="n">
         <v>497819.8104797477</v>
       </c>
       <c r="E2" t="n">
-        <v>435036.4187778491</v>
+        <v>435036.4187778495</v>
       </c>
       <c r="F2" t="n">
-        <v>435036.4187778491</v>
+        <v>435036.4187778489</v>
       </c>
       <c r="G2" t="n">
-        <v>498955.6393212181</v>
+        <v>498955.6393212182</v>
       </c>
       <c r="H2" t="n">
+        <v>498955.6393212182</v>
+      </c>
+      <c r="I2" t="n">
         <v>498955.6393212183</v>
-      </c>
-      <c r="I2" t="n">
-        <v>498955.6393212182</v>
       </c>
       <c r="J2" t="n">
         <v>498955.6393212184</v>
       </c>
       <c r="K2" t="n">
-        <v>498955.6393212183</v>
+        <v>498955.6393212184</v>
       </c>
       <c r="L2" t="n">
-        <v>498955.6393212181</v>
+        <v>498955.6393212185</v>
       </c>
       <c r="M2" t="n">
-        <v>498955.6393212171</v>
+        <v>498955.6393212173</v>
       </c>
       <c r="N2" t="n">
-        <v>498955.6393212172</v>
+        <v>498955.6393212173</v>
       </c>
       <c r="O2" t="n">
-        <v>498955.6393212173</v>
+        <v>498955.6393212176</v>
       </c>
       <c r="P2" t="n">
-        <v>498955.6393212173</v>
+        <v>498955.6393212174</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356901.2563746108</v>
+        <v>356901.256374611</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>72236.38115909419</v>
+        <v>72236.38115909409</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120312.442846625</v>
+        <v>120312.4428466251</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72236.38115909422</v>
+        <v>72236.38115909412</v>
       </c>
       <c r="M3" t="n">
-        <v>103055.0537486386</v>
+        <v>103055.0537486387</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8860.779650763721</v>
+        <v>8860.779650763812</v>
       </c>
       <c r="P3" t="n">
         <v>6.821210263296962e-11</v>
@@ -26424,25 +26424,25 @@
         <v>415219.1534460828</v>
       </c>
       <c r="E4" t="n">
-        <v>292825.008417923</v>
+        <v>292825.0084179229</v>
       </c>
       <c r="F4" t="n">
         <v>292825.008417923</v>
       </c>
       <c r="G4" t="n">
-        <v>348860.1176001111</v>
+        <v>348860.1176001109</v>
       </c>
       <c r="H4" t="n">
-        <v>348860.1176001111</v>
+        <v>348860.1176001109</v>
       </c>
       <c r="I4" t="n">
-        <v>348860.1176001111</v>
+        <v>348860.117600111</v>
       </c>
       <c r="J4" t="n">
         <v>338193.2769757742</v>
       </c>
       <c r="K4" t="n">
-        <v>338193.2769757743</v>
+        <v>338193.2769757741</v>
       </c>
       <c r="L4" t="n">
         <v>338193.2769757742</v>
@@ -26451,13 +26451,13 @@
         <v>339446.9901772322</v>
       </c>
       <c r="N4" t="n">
+        <v>339446.9901772322</v>
+      </c>
+      <c r="O4" t="n">
+        <v>339446.9901772322</v>
+      </c>
+      <c r="P4" t="n">
         <v>339446.9901772323</v>
-      </c>
-      <c r="O4" t="n">
-        <v>339446.9901772323</v>
-      </c>
-      <c r="P4" t="n">
-        <v>339446.9901772324</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41524.90096894782</v>
+        <v>41524.90096894783</v>
       </c>
       <c r="F5" t="n">
-        <v>41524.90096894782</v>
+        <v>41524.90096894783</v>
       </c>
       <c r="G5" t="n">
         <v>49115.95137852768</v>
@@ -26494,13 +26494,13 @@
         <v>65082.64625607467</v>
       </c>
       <c r="K5" t="n">
-        <v>65082.64625607467</v>
+        <v>65082.64625607465</v>
       </c>
       <c r="L5" t="n">
         <v>65082.64625607466</v>
       </c>
       <c r="M5" t="n">
-        <v>55600.50041746881</v>
+        <v>55600.50041746882</v>
       </c>
       <c r="N5" t="n">
         <v>55600.50041746882</v>
@@ -26509,7 +26509,7 @@
         <v>55600.50041746882</v>
       </c>
       <c r="P5" t="n">
-        <v>55600.50041746882</v>
+        <v>55600.50041746883</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48973.05703366493</v>
+        <v>48968.68846119779</v>
       </c>
       <c r="C6" t="n">
-        <v>48973.05703366487</v>
+        <v>48968.68846119785</v>
       </c>
       <c r="D6" t="n">
-        <v>48973.05703366487</v>
+        <v>48968.68846119774</v>
       </c>
       <c r="E6" t="n">
-        <v>-256214.7469836326</v>
+        <v>-256460.5901395683</v>
       </c>
       <c r="F6" t="n">
-        <v>100686.5093909782</v>
+        <v>100440.6662350421</v>
       </c>
       <c r="G6" t="n">
-        <v>28743.18918348523</v>
+        <v>28743.18918348552</v>
       </c>
       <c r="H6" t="n">
         <v>100979.5703425796</v>
       </c>
       <c r="I6" t="n">
-        <v>100979.5703425794</v>
+        <v>100979.5703425796</v>
       </c>
       <c r="J6" t="n">
-        <v>-24632.72675725545</v>
+        <v>-24632.72675725557</v>
       </c>
       <c r="K6" t="n">
-        <v>95679.71608936937</v>
+        <v>95679.71608936967</v>
       </c>
       <c r="L6" t="n">
-        <v>23443.33493027504</v>
+        <v>23443.33493027557</v>
       </c>
       <c r="M6" t="n">
-        <v>853.0949778775321</v>
+        <v>853.094977877583</v>
       </c>
       <c r="N6" t="n">
-        <v>103908.148726516</v>
+        <v>103908.1487265163</v>
       </c>
       <c r="O6" t="n">
-        <v>95047.36907575246</v>
+        <v>95047.36907575275</v>
       </c>
       <c r="P6" t="n">
-        <v>103908.148726516</v>
+        <v>103908.1487265162</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>219.5135474428162</v>
       </c>
       <c r="H2" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="I2" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="J2" t="n">
         <v>101.3714510123223</v>
@@ -26713,7 +26713,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="M2" t="n">
         <v>166.0499518471043</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879124</v>
       </c>
       <c r="F3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879124</v>
       </c>
       <c r="G3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879124</v>
       </c>
       <c r="H3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879124</v>
       </c>
       <c r="I3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879124</v>
       </c>
       <c r="J3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879124</v>
       </c>
       <c r="K3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879123</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879123</v>
       </c>
       <c r="M3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879123</v>
       </c>
       <c r="N3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879123</v>
       </c>
       <c r="O3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879123</v>
       </c>
       <c r="P3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879123</v>
       </c>
     </row>
     <row r="4">
@@ -26814,10 +26814,10 @@
         <v>877.2596374066325</v>
       </c>
       <c r="K4" t="n">
-        <v>877.2596374066326</v>
+        <v>877.2596374066322</v>
       </c>
       <c r="L4" t="n">
-        <v>877.2596374066324</v>
+        <v>877.2596374066322</v>
       </c>
       <c r="M4" t="n">
         <v>631.871434688127</v>
@@ -26917,10 +26917,10 @@
         <v>129.2180709939485</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>90.29547644886773</v>
+        <v>90.29547644886762</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.07597456345465</v>
+        <v>11.07597456345471</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886777</v>
+        <v>90.29547644886765</v>
       </c>
       <c r="M2" t="n">
-        <v>64.6785008347819</v>
+        <v>64.67850083478196</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345465</v>
+        <v>11.07597456345476</v>
       </c>
       <c r="P2" t="n">
         <v>8.526512829121202e-14</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>205.9046126098019</v>
+        <v>205.904612609802</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>129.2180709939485</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886773</v>
+        <v>90.29547644886762</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345465</v>
+        <v>11.07597456345471</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>52.3964593378205</v>
+        <v>52.39645933782045</v>
       </c>
       <c r="S11" t="n">
         <v>129.2180709939485</v>
@@ -28172,22 +28172,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>129.2180709939485</v>
       </c>
       <c r="F12" t="n">
-        <v>89.82078719507413</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.44188278383305</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S12" t="n">
         <v>129.2180709939485</v>
@@ -28232,10 +28232,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>87.72592073002808</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="13">
@@ -28272,7 +28272,7 @@
         <v>129.2180709939485</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>97.94315950317284</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>97.94315950317369</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>129.2180709939485</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>52.3964593378205</v>
+        <v>52.39645933782045</v>
       </c>
       <c r="S14" t="n">
         <v>129.2180709939485</v>
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>129.2180709939485</v>
       </c>
       <c r="D15" t="n">
-        <v>90.14492105451247</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G15" t="n">
         <v>127.1232045289026</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>50.70303827067924</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>129.2180709939485</v>
       </c>
       <c r="K16" t="n">
-        <v>97.94315950317365</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>97.94315950317255</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>52.3964593378205</v>
+        <v>52.39645933782045</v>
       </c>
       <c r="S17" t="n">
         <v>171.8127151144388</v>
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,19 +28688,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.44188278383305</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>145.364587523205</v>
       </c>
       <c r="T18" t="n">
-        <v>185.5164475248238</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V18" t="n">
-        <v>107.4762162044959</v>
+        <v>122.2999411973256</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9639418688503</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>155.4085199241127</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>60.59041869836713</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T19" t="n">
         <v>219.5135474428162</v>
@@ -28782,7 +28782,7 @@
         <v>219.5135474428162</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>20.62796817838813</v>
       </c>
       <c r="X19" t="n">
         <v>219.5135474428162</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="C20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="D20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="E20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="F20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="G20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="H20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="I20" t="n">
         <v>148.1749764353493</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>52.3964593378205</v>
+        <v>52.39645933782045</v>
       </c>
       <c r="S20" t="n">
         <v>171.8127151144388</v>
       </c>
       <c r="T20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="U20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="V20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="W20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="X20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.44188278383305</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S21" t="n">
-        <v>102.7032428172701</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>175.9758456430595</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28971,16 +28971,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9639418688503</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>155.4085199241127</v>
       </c>
       <c r="I22" t="n">
         <v>134.7433458784038</v>
       </c>
       <c r="J22" t="n">
-        <v>40.6073903176101</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.82707656697312</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R22" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>23.52563074735093</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="V22" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="W22" t="n">
-        <v>219.5135474428162</v>
+        <v>183.7070487366212</v>
       </c>
       <c r="X22" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="C23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="D23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="E23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="F23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="G23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="H23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="I23" t="n">
         <v>148.1749764353493</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>52.3964593378205</v>
+        <v>52.39645933782045</v>
       </c>
       <c r="S23" t="n">
         <v>171.8127151144388</v>
       </c>
       <c r="T23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="U23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="V23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="W23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="X23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="Y23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>127.1232045289026</v>
       </c>
       <c r="H24" t="n">
-        <v>95.86716744632758</v>
+        <v>26.496343696986</v>
       </c>
       <c r="I24" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,19 +29162,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.44188278383305</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>145.364587523205</v>
       </c>
       <c r="T24" t="n">
-        <v>16.72969776457018</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V24" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29217,7 +29217,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J25" t="n">
-        <v>40.6073903176101</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.82707656697312</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R25" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.9263923888292</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>100.2178133200416</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="U25" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="V25" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="W25" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>172.0757616567207</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.5135474428161</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="J26" t="n">
-        <v>56.34270386546993</v>
+        <v>56.34270386546875</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="K28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L28" t="n">
         <v>101.3714510123223</v>
@@ -29533,13 +29533,13 @@
         <v>101.3714510123223</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>56.34270386546848</v>
+      </c>
+      <c r="L29" t="n">
         <v>101.3714510123223</v>
-      </c>
-      <c r="K29" t="n">
-        <v>101.3714510123223</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.946244527649981</v>
       </c>
       <c r="M29" t="n">
         <v>101.3714510123223</v>
@@ -29557,7 +29557,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="R29" t="n">
-        <v>52.3964593378205</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="S29" t="n">
         <v>101.3714510123223</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="C32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="D32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="E32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="F32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="G32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="H32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="I32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="J32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L32" t="n">
-        <v>56.34270386546922</v>
+        <v>56.34270386546854</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="O32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="P32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="R32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="S32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="T32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="U32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="V32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="W32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="X32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Y32" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="C34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="D34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="E34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="F34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="G34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="H34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="I34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="J34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123219</v>
       </c>
       <c r="M34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="N34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="O34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="P34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="R34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="S34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="T34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="U34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="V34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="W34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.3964593378205</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S35" t="n">
         <v>166.0499518471043</v>
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30122,7 +30122,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.0499518471043</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>166.0499518471043</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0499518471043</v>
+        <v>153.8887999698072</v>
       </c>
       <c r="H37" t="n">
         <v>155.4085199241127</v>
@@ -30165,7 +30165,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.82707656697312</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R37" t="n">
         <v>136.0388409905457</v>
@@ -30204,7 +30204,7 @@
         <v>166.0499518471043</v>
       </c>
       <c r="W37" t="n">
-        <v>28.44623844031389</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="X37" t="n">
         <v>166.0499518471043</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.3964593378205</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S38" t="n">
         <v>166.0499518471043</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-4.192202140984591e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="H40" t="n">
-        <v>143.2473680468159</v>
+        <v>155.4085199241127</v>
       </c>
       <c r="I40" t="n">
         <v>134.7433458784038</v>
       </c>
       <c r="J40" t="n">
-        <v>40.6073903176101</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.82707656697312</v>
+        <v>3.665924689676363</v>
       </c>
       <c r="R40" t="n">
         <v>136.0388409905457</v>
@@ -30441,7 +30441,7 @@
         <v>166.0499518471043</v>
       </c>
       <c r="W40" t="n">
-        <v>166.0499518471043</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>166.0499518471043</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.3964593378205</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S41" t="n">
         <v>166.0499518471043</v>
@@ -30624,7 +30624,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>12.88521068950334</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.82707656697312</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>136.0388409905457</v>
@@ -30675,7 +30675,7 @@
         <v>166.0499518471043</v>
       </c>
       <c r="V43" t="n">
-        <v>166.0499518471043</v>
+        <v>44.27331500728599</v>
       </c>
       <c r="W43" t="n">
         <v>166.0499518471043</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.3964593378205</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S44" t="n">
         <v>166.0499518471044</v>
@@ -30876,7 +30876,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J46" t="n">
-        <v>40.6073903176101</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,19 +30897,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.82707656697312</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R46" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>153.8887999698065</v>
+      </c>
+      <c r="U46" t="n">
         <v>166.0499518471044</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>153.8887999698068</v>
       </c>
       <c r="V46" t="n">
         <v>166.0499518471044</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966322</v>
       </c>
       <c r="H11" t="n">
-        <v>6.086985755286753</v>
+        <v>6.086985755286761</v>
       </c>
       <c r="I11" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794269</v>
       </c>
       <c r="J11" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902796</v>
       </c>
       <c r="K11" t="n">
-        <v>75.60477620105532</v>
+        <v>75.60477620105542</v>
       </c>
       <c r="L11" t="n">
-        <v>93.79441030903598</v>
+        <v>93.79441030903611</v>
       </c>
       <c r="M11" t="n">
-        <v>104.3643537168798</v>
+        <v>104.36435371688</v>
       </c>
       <c r="N11" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695917</v>
       </c>
       <c r="O11" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P11" t="n">
-        <v>85.4696604752769</v>
+        <v>85.46966047527702</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.18415554558503</v>
+        <v>64.18415554558511</v>
       </c>
       <c r="R11" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128473</v>
       </c>
       <c r="S11" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T11" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482759</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973057</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456983</v>
       </c>
       <c r="H12" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I12" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J12" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698416</v>
       </c>
       <c r="K12" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604594</v>
       </c>
       <c r="L12" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325568</v>
       </c>
       <c r="M12" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491224</v>
       </c>
       <c r="N12" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255204</v>
       </c>
       <c r="O12" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953946</v>
       </c>
       <c r="P12" t="n">
-        <v>60.72604775005963</v>
+        <v>60.72604775005971</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650002</v>
       </c>
       <c r="R12" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S12" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182155</v>
       </c>
       <c r="T12" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782026</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I13" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944496</v>
       </c>
       <c r="J13" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K13" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346753</v>
       </c>
       <c r="L13" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455933</v>
       </c>
       <c r="M13" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668315</v>
       </c>
       <c r="N13" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976443</v>
       </c>
       <c r="O13" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051905</v>
       </c>
       <c r="P13" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587477</v>
       </c>
       <c r="R13" t="n">
-        <v>11.98772258121989</v>
+        <v>11.98772258121991</v>
       </c>
       <c r="S13" t="n">
-        <v>4.646272581520122</v>
+        <v>4.64627258152013</v>
       </c>
       <c r="T13" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966322</v>
       </c>
       <c r="H14" t="n">
-        <v>6.086985755286753</v>
+        <v>6.086985755286761</v>
       </c>
       <c r="I14" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794269</v>
       </c>
       <c r="J14" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902796</v>
       </c>
       <c r="K14" t="n">
-        <v>75.60477620105532</v>
+        <v>75.60477620105542</v>
       </c>
       <c r="L14" t="n">
-        <v>93.79441030903598</v>
+        <v>93.79441030903611</v>
       </c>
       <c r="M14" t="n">
-        <v>104.3643537168798</v>
+        <v>104.36435371688</v>
       </c>
       <c r="N14" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695917</v>
       </c>
       <c r="O14" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P14" t="n">
-        <v>85.4696604752769</v>
+        <v>85.46966047527702</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.18415554558503</v>
+        <v>64.18415554558511</v>
       </c>
       <c r="R14" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128473</v>
       </c>
       <c r="S14" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T14" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482759</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973057</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456983</v>
       </c>
       <c r="H15" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I15" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J15" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698416</v>
       </c>
       <c r="K15" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604594</v>
       </c>
       <c r="L15" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325568</v>
       </c>
       <c r="M15" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491224</v>
       </c>
       <c r="N15" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255204</v>
       </c>
       <c r="O15" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953946</v>
       </c>
       <c r="P15" t="n">
-        <v>60.72604775005963</v>
+        <v>60.72604775005971</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650002</v>
       </c>
       <c r="R15" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S15" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182155</v>
       </c>
       <c r="T15" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782026</v>
       </c>
       <c r="H16" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I16" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944496</v>
       </c>
       <c r="J16" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K16" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346753</v>
       </c>
       <c r="L16" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455933</v>
       </c>
       <c r="M16" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668315</v>
       </c>
       <c r="N16" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976443</v>
       </c>
       <c r="O16" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051905</v>
       </c>
       <c r="P16" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587477</v>
       </c>
       <c r="R16" t="n">
-        <v>11.98772258121989</v>
+        <v>11.98772258121991</v>
       </c>
       <c r="S16" t="n">
-        <v>4.646272581520122</v>
+        <v>4.64627258152013</v>
       </c>
       <c r="T16" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966322</v>
       </c>
       <c r="H17" t="n">
-        <v>6.086985755286753</v>
+        <v>6.086985755286761</v>
       </c>
       <c r="I17" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794269</v>
       </c>
       <c r="J17" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902796</v>
       </c>
       <c r="K17" t="n">
-        <v>75.60477620105532</v>
+        <v>75.60477620105542</v>
       </c>
       <c r="L17" t="n">
-        <v>93.79441030903598</v>
+        <v>93.79441030903611</v>
       </c>
       <c r="M17" t="n">
-        <v>104.3643537168798</v>
+        <v>104.36435371688</v>
       </c>
       <c r="N17" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695917</v>
       </c>
       <c r="O17" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P17" t="n">
-        <v>85.4696604752769</v>
+        <v>85.46966047527702</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.18415554558503</v>
+        <v>64.18415554558511</v>
       </c>
       <c r="R17" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128473</v>
       </c>
       <c r="S17" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T17" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482759</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973057</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456983</v>
       </c>
       <c r="H18" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I18" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J18" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698416</v>
       </c>
       <c r="K18" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604594</v>
       </c>
       <c r="L18" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325568</v>
       </c>
       <c r="M18" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491224</v>
       </c>
       <c r="N18" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255204</v>
       </c>
       <c r="O18" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953946</v>
       </c>
       <c r="P18" t="n">
-        <v>60.72604775005963</v>
+        <v>60.72604775005971</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650002</v>
       </c>
       <c r="R18" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S18" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182155</v>
       </c>
       <c r="T18" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782026</v>
       </c>
       <c r="H19" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I19" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944496</v>
       </c>
       <c r="J19" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K19" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346753</v>
       </c>
       <c r="L19" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455933</v>
       </c>
       <c r="M19" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668315</v>
       </c>
       <c r="N19" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976443</v>
       </c>
       <c r="O19" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051905</v>
       </c>
       <c r="P19" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587477</v>
       </c>
       <c r="R19" t="n">
-        <v>11.98772258121989</v>
+        <v>11.98772258121991</v>
       </c>
       <c r="S19" t="n">
-        <v>4.646272581520122</v>
+        <v>4.64627258152013</v>
       </c>
       <c r="T19" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966322</v>
       </c>
       <c r="H20" t="n">
-        <v>6.086985755286753</v>
+        <v>6.086985755286761</v>
       </c>
       <c r="I20" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794269</v>
       </c>
       <c r="J20" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902796</v>
       </c>
       <c r="K20" t="n">
-        <v>75.60477620105532</v>
+        <v>75.60477620105542</v>
       </c>
       <c r="L20" t="n">
-        <v>93.79441030903598</v>
+        <v>93.79441030903611</v>
       </c>
       <c r="M20" t="n">
-        <v>104.3643537168798</v>
+        <v>104.36435371688</v>
       </c>
       <c r="N20" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695917</v>
       </c>
       <c r="O20" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P20" t="n">
-        <v>85.4696604752769</v>
+        <v>85.46966047527702</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.18415554558503</v>
+        <v>64.18415554558511</v>
       </c>
       <c r="R20" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128473</v>
       </c>
       <c r="S20" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T20" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482759</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973057</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456983</v>
       </c>
       <c r="H21" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I21" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J21" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698416</v>
       </c>
       <c r="K21" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604594</v>
       </c>
       <c r="L21" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325568</v>
       </c>
       <c r="M21" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491224</v>
       </c>
       <c r="N21" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255204</v>
       </c>
       <c r="O21" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953946</v>
       </c>
       <c r="P21" t="n">
-        <v>60.72604775005963</v>
+        <v>60.72604775005971</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650002</v>
       </c>
       <c r="R21" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S21" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182155</v>
       </c>
       <c r="T21" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782026</v>
       </c>
       <c r="H22" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I22" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944496</v>
       </c>
       <c r="J22" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K22" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346753</v>
       </c>
       <c r="L22" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455933</v>
       </c>
       <c r="M22" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668315</v>
       </c>
       <c r="N22" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976443</v>
       </c>
       <c r="O22" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051905</v>
       </c>
       <c r="P22" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587477</v>
       </c>
       <c r="R22" t="n">
-        <v>11.98772258121989</v>
+        <v>11.98772258121991</v>
       </c>
       <c r="S22" t="n">
-        <v>4.646272581520122</v>
+        <v>4.64627258152013</v>
       </c>
       <c r="T22" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966322</v>
       </c>
       <c r="H23" t="n">
-        <v>6.086985755286753</v>
+        <v>6.086985755286761</v>
       </c>
       <c r="I23" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794269</v>
       </c>
       <c r="J23" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902796</v>
       </c>
       <c r="K23" t="n">
-        <v>75.60477620105532</v>
+        <v>75.60477620105542</v>
       </c>
       <c r="L23" t="n">
-        <v>93.79441030903598</v>
+        <v>93.79441030903611</v>
       </c>
       <c r="M23" t="n">
-        <v>104.3643537168798</v>
+        <v>104.36435371688</v>
       </c>
       <c r="N23" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695917</v>
       </c>
       <c r="O23" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P23" t="n">
-        <v>85.4696604752769</v>
+        <v>85.46966047527702</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.18415554558503</v>
+        <v>64.18415554558511</v>
       </c>
       <c r="R23" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128473</v>
       </c>
       <c r="S23" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T23" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482759</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973057</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456983</v>
       </c>
       <c r="H24" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I24" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J24" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698416</v>
       </c>
       <c r="K24" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604594</v>
       </c>
       <c r="L24" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325568</v>
       </c>
       <c r="M24" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491224</v>
       </c>
       <c r="N24" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255204</v>
       </c>
       <c r="O24" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953946</v>
       </c>
       <c r="P24" t="n">
-        <v>60.72604775005963</v>
+        <v>60.72604775005971</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650002</v>
       </c>
       <c r="R24" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S24" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182155</v>
       </c>
       <c r="T24" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782026</v>
       </c>
       <c r="H25" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I25" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944496</v>
       </c>
       <c r="J25" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K25" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346753</v>
       </c>
       <c r="L25" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455933</v>
       </c>
       <c r="M25" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668315</v>
       </c>
       <c r="N25" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976443</v>
       </c>
       <c r="O25" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051905</v>
       </c>
       <c r="P25" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587477</v>
       </c>
       <c r="R25" t="n">
-        <v>11.98772258121989</v>
+        <v>11.98772258121991</v>
       </c>
       <c r="S25" t="n">
-        <v>4.646272581520122</v>
+        <v>4.64627258152013</v>
       </c>
       <c r="T25" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966322</v>
       </c>
       <c r="H26" t="n">
-        <v>6.086985755286753</v>
+        <v>6.086985755286761</v>
       </c>
       <c r="I26" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794269</v>
       </c>
       <c r="J26" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902796</v>
       </c>
       <c r="K26" t="n">
-        <v>75.60477620105532</v>
+        <v>75.60477620105542</v>
       </c>
       <c r="L26" t="n">
-        <v>93.79441030903598</v>
+        <v>93.79441030903611</v>
       </c>
       <c r="M26" t="n">
-        <v>104.3643537168798</v>
+        <v>104.36435371688</v>
       </c>
       <c r="N26" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695917</v>
       </c>
       <c r="O26" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P26" t="n">
-        <v>85.4696604752769</v>
+        <v>85.46966047527702</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.18415554558503</v>
+        <v>64.18415554558511</v>
       </c>
       <c r="R26" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128473</v>
       </c>
       <c r="S26" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T26" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482759</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973057</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456983</v>
       </c>
       <c r="H27" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I27" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J27" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698416</v>
       </c>
       <c r="K27" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604594</v>
       </c>
       <c r="L27" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325568</v>
       </c>
       <c r="M27" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491224</v>
       </c>
       <c r="N27" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255204</v>
       </c>
       <c r="O27" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953946</v>
       </c>
       <c r="P27" t="n">
-        <v>60.72604775005963</v>
+        <v>60.72604775005971</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650002</v>
       </c>
       <c r="R27" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S27" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182155</v>
       </c>
       <c r="T27" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782026</v>
       </c>
       <c r="H28" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I28" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944496</v>
       </c>
       <c r="J28" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K28" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346753</v>
       </c>
       <c r="L28" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455933</v>
       </c>
       <c r="M28" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668315</v>
       </c>
       <c r="N28" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976443</v>
       </c>
       <c r="O28" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051905</v>
       </c>
       <c r="P28" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587477</v>
       </c>
       <c r="R28" t="n">
-        <v>11.98772258121989</v>
+        <v>11.98772258121991</v>
       </c>
       <c r="S28" t="n">
-        <v>4.646272581520122</v>
+        <v>4.64627258152013</v>
       </c>
       <c r="T28" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H29" t="n">
-        <v>6.086985755286753</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I29" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794268</v>
       </c>
       <c r="J29" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K29" t="n">
-        <v>75.60477620105532</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L29" t="n">
-        <v>93.79441030903598</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M29" t="n">
-        <v>104.3643537168798</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N29" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O29" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P29" t="n">
-        <v>85.4696604752769</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.18415554558503</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R29" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128472</v>
       </c>
       <c r="S29" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T29" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456982</v>
       </c>
       <c r="H30" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I30" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J30" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698415</v>
       </c>
       <c r="K30" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604593</v>
       </c>
       <c r="L30" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M30" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N30" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O30" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P30" t="n">
-        <v>60.72604775005963</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R30" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S30" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T30" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782025</v>
       </c>
       <c r="H31" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I31" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J31" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K31" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346752</v>
       </c>
       <c r="L31" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M31" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668314</v>
       </c>
       <c r="N31" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976442</v>
       </c>
       <c r="O31" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P31" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587476</v>
       </c>
       <c r="R31" t="n">
-        <v>11.98772258121989</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S31" t="n">
-        <v>4.646272581520122</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T31" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H32" t="n">
-        <v>6.086985755286753</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I32" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794268</v>
       </c>
       <c r="J32" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K32" t="n">
-        <v>75.60477620105532</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L32" t="n">
-        <v>93.79441030903598</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M32" t="n">
-        <v>104.3643537168798</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N32" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O32" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P32" t="n">
-        <v>85.4696604752769</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.18415554558503</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R32" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128472</v>
       </c>
       <c r="S32" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T32" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456982</v>
       </c>
       <c r="H33" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I33" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J33" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698415</v>
       </c>
       <c r="K33" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604593</v>
       </c>
       <c r="L33" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M33" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N33" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O33" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P33" t="n">
-        <v>60.72604775005963</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R33" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S33" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T33" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782025</v>
       </c>
       <c r="H34" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I34" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J34" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K34" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346752</v>
       </c>
       <c r="L34" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M34" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668314</v>
       </c>
       <c r="N34" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976442</v>
       </c>
       <c r="O34" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P34" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587476</v>
       </c>
       <c r="R34" t="n">
-        <v>11.98772258121989</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S34" t="n">
-        <v>4.646272581520122</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T34" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H35" t="n">
-        <v>6.086985755286753</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I35" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794268</v>
       </c>
       <c r="J35" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K35" t="n">
-        <v>75.60477620105532</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L35" t="n">
-        <v>93.79441030903598</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M35" t="n">
-        <v>104.3643537168798</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N35" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O35" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P35" t="n">
-        <v>85.4696604752769</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.18415554558503</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R35" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128472</v>
       </c>
       <c r="S35" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T35" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456982</v>
       </c>
       <c r="H36" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I36" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J36" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698415</v>
       </c>
       <c r="K36" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604593</v>
       </c>
       <c r="L36" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M36" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N36" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O36" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P36" t="n">
-        <v>60.72604775005963</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R36" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S36" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T36" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782025</v>
       </c>
       <c r="H37" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I37" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J37" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K37" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346752</v>
       </c>
       <c r="L37" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M37" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668314</v>
       </c>
       <c r="N37" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976442</v>
       </c>
       <c r="O37" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P37" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587476</v>
       </c>
       <c r="R37" t="n">
-        <v>11.98772258121989</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S37" t="n">
-        <v>4.646272581520122</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T37" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H38" t="n">
-        <v>6.086985755286753</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I38" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794268</v>
       </c>
       <c r="J38" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K38" t="n">
-        <v>75.60477620105532</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L38" t="n">
-        <v>93.79441030903598</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M38" t="n">
-        <v>104.3643537168798</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N38" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O38" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P38" t="n">
-        <v>85.4696604752769</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.18415554558503</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R38" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128472</v>
       </c>
       <c r="S38" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T38" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456982</v>
       </c>
       <c r="H39" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I39" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J39" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698415</v>
       </c>
       <c r="K39" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604593</v>
       </c>
       <c r="L39" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M39" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N39" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O39" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P39" t="n">
-        <v>60.72604775005963</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R39" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S39" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T39" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782025</v>
       </c>
       <c r="H40" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I40" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J40" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K40" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346752</v>
       </c>
       <c r="L40" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M40" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668314</v>
       </c>
       <c r="N40" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976442</v>
       </c>
       <c r="O40" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P40" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587476</v>
       </c>
       <c r="R40" t="n">
-        <v>11.98772258121989</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S40" t="n">
-        <v>4.646272581520122</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T40" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H41" t="n">
-        <v>6.086985755286753</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I41" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794268</v>
       </c>
       <c r="J41" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K41" t="n">
-        <v>75.60477620105532</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L41" t="n">
-        <v>93.79441030903598</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M41" t="n">
-        <v>104.3643537168798</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N41" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O41" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P41" t="n">
-        <v>85.4696604752769</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.18415554558503</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R41" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128472</v>
       </c>
       <c r="S41" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T41" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456982</v>
       </c>
       <c r="H42" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I42" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J42" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698415</v>
       </c>
       <c r="K42" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604593</v>
       </c>
       <c r="L42" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M42" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N42" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O42" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P42" t="n">
-        <v>60.72604775005963</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R42" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S42" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T42" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782025</v>
       </c>
       <c r="H43" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I43" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J43" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K43" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346752</v>
       </c>
       <c r="L43" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M43" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668314</v>
       </c>
       <c r="N43" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976442</v>
       </c>
       <c r="O43" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P43" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587476</v>
       </c>
       <c r="R43" t="n">
-        <v>11.98772258121989</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S43" t="n">
-        <v>4.646272581520122</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T43" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5943596489966314</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H44" t="n">
-        <v>6.086985755286753</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I44" t="n">
-        <v>22.91405036794265</v>
+        <v>22.91405036794268</v>
       </c>
       <c r="J44" t="n">
-        <v>50.44553225902789</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K44" t="n">
-        <v>75.60477620105532</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L44" t="n">
-        <v>93.79441030903598</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M44" t="n">
-        <v>104.3643537168798</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N44" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O44" t="n">
-        <v>100.1429143098812</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P44" t="n">
-        <v>85.4696604752769</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.18415554558503</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R44" t="n">
-        <v>37.33544430128468</v>
+        <v>37.33544430128472</v>
       </c>
       <c r="S44" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T44" t="n">
-        <v>2.601809363482755</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0475487719197305</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456982</v>
       </c>
       <c r="H45" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I45" t="n">
-        <v>10.9490439349067</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J45" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698415</v>
       </c>
       <c r="K45" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604593</v>
       </c>
       <c r="L45" t="n">
-        <v>69.04871592325559</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M45" t="n">
-        <v>80.57659466491212</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N45" t="n">
-        <v>82.70921736255193</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O45" t="n">
-        <v>75.66277532953936</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P45" t="n">
-        <v>60.72604775005963</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R45" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217064</v>
       </c>
       <c r="S45" t="n">
-        <v>5.906904594182148</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T45" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850862</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300647</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2666092769782022</v>
+        <v>0.2666092769782025</v>
       </c>
       <c r="H46" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I46" t="n">
-        <v>8.017668074944485</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J46" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235892</v>
       </c>
       <c r="K46" t="n">
-        <v>30.97515054346749</v>
+        <v>30.97515054346752</v>
       </c>
       <c r="L46" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M46" t="n">
-        <v>41.7922160266831</v>
+        <v>41.79221602668314</v>
       </c>
       <c r="N46" t="n">
-        <v>40.79849053976438</v>
+        <v>40.79849053976442</v>
       </c>
       <c r="O46" t="n">
-        <v>37.684009440519</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P46" t="n">
-        <v>32.24518019016364</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587476</v>
       </c>
       <c r="R46" t="n">
-        <v>11.98772258121989</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S46" t="n">
-        <v>4.646272581520122</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T46" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>318.1708085695228</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M11" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>451.2928153283072</v>
+        <v>16.67149238398068</v>
       </c>
       <c r="O11" t="n">
-        <v>408.2283531713297</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P11" t="n">
-        <v>34.78108121639293</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>90.90778770284891</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1603523957314</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L12" t="n">
-        <v>438.5657312466047</v>
+        <v>438.5657312466049</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>48.08583089196117</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>408.4708585174196</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="P12" t="n">
-        <v>365.8734409578346</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.61068067633839</v>
+        <v>88.61068067633845</v>
       </c>
       <c r="K13" t="n">
-        <v>64.91877452795579</v>
+        <v>162.8619340311287</v>
       </c>
       <c r="L13" t="n">
-        <v>141.2608408500739</v>
+        <v>141.260840850074</v>
       </c>
       <c r="M13" t="n">
-        <v>160.9775757515333</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N13" t="n">
-        <v>160.4170175595627</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O13" t="n">
-        <v>137.1422382240439</v>
+        <v>137.142238224044</v>
       </c>
       <c r="P13" t="n">
-        <v>193.7928687116583</v>
+        <v>95.8497092084847</v>
       </c>
       <c r="Q13" t="n">
         <v>113.3909944269754</v>
@@ -35650,19 +35650,19 @@
         <v>318.1708085695228</v>
       </c>
       <c r="L14" t="n">
-        <v>445.1937770615069</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="N14" t="n">
         <v>451.2928153283072</v>
       </c>
       <c r="O14" t="n">
-        <v>408.2283531713297</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>164.0514540379843</v>
+        <v>120.9869918810067</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>90.90778770284891</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>283.1603523957314</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>438.5657312466049</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>451.2928153283072</v>
       </c>
-      <c r="N15" t="n">
-        <v>395.7437744357172</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="P15" t="n">
-        <v>365.8734409578346</v>
+        <v>162.6254938697</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.61068067633839</v>
+        <v>88.61068067633848</v>
       </c>
       <c r="K16" t="n">
-        <v>162.8619340311294</v>
+        <v>64.91877452795583</v>
       </c>
       <c r="L16" t="n">
-        <v>141.2608408500739</v>
+        <v>141.260840850074</v>
       </c>
       <c r="M16" t="n">
-        <v>160.9775757515333</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N16" t="n">
-        <v>160.4170175595627</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O16" t="n">
-        <v>137.1422382240439</v>
+        <v>235.0853977272165</v>
       </c>
       <c r="P16" t="n">
-        <v>95.84970920848465</v>
+        <v>95.8497092084847</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3909944269754</v>
+        <v>113.3909944269755</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>318.1708085695228</v>
       </c>
       <c r="L17" t="n">
-        <v>445.1937770615069</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>256.3486351622658</v>
       </c>
       <c r="N17" t="n">
-        <v>139.8428269387725</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="O17" t="n">
-        <v>408.2283531713297</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>315.9311720470478</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.5702703804709</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>438.5657312466047</v>
+        <v>438.5657312466049</v>
       </c>
       <c r="M18" t="n">
-        <v>451.2928153283072</v>
+        <v>440.2974329330551</v>
       </c>
       <c r="N18" t="n">
-        <v>79.91240530759696</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>451.2928153283072</v>
       </c>
       <c r="P18" t="n">
-        <v>365.8734409578346</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>64.91877452795579</v>
+        <v>64.91877452795583</v>
       </c>
       <c r="L19" t="n">
-        <v>141.2608408500739</v>
+        <v>141.260840850074</v>
       </c>
       <c r="M19" t="n">
-        <v>160.9775757515333</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N19" t="n">
-        <v>160.4170175595627</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O19" t="n">
-        <v>137.1422382240439</v>
+        <v>137.142238224044</v>
       </c>
       <c r="P19" t="n">
-        <v>95.84970920848465</v>
+        <v>95.8497092084847</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>199.4806576722444</v>
       </c>
       <c r="L20" t="n">
-        <v>445.1937770615069</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M20" t="n">
-        <v>451.2928153283072</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>451.2928153283072</v>
       </c>
       <c r="O20" t="n">
-        <v>408.2283531713297</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P20" t="n">
-        <v>30.92944727919999</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>90.90778770284891</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K21" t="n">
-        <v>283.1603523957314</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>438.5657312466047</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>427.5703488513528</v>
       </c>
       <c r="O21" t="n">
-        <v>408.4708585174196</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="P21" t="n">
-        <v>365.8734409578346</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>64.91877452795579</v>
+        <v>64.91877452795583</v>
       </c>
       <c r="L22" t="n">
-        <v>141.2608408500739</v>
+        <v>141.260840850074</v>
       </c>
       <c r="M22" t="n">
-        <v>160.9775757515333</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N22" t="n">
-        <v>160.4170175595627</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O22" t="n">
-        <v>137.1422382240439</v>
+        <v>137.142238224044</v>
       </c>
       <c r="P22" t="n">
-        <v>95.84970920848465</v>
+        <v>95.8497092084847</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L23" t="n">
-        <v>445.1937770615069</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>451.2928153283074</v>
+        <v>10.57245411718117</v>
       </c>
       <c r="N23" t="n">
         <v>451.2928153283074</v>
       </c>
       <c r="O23" t="n">
-        <v>408.2283531713297</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P23" t="n">
-        <v>30.92944727920022</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L24" t="n">
-        <v>438.5657312466047</v>
+        <v>438.5657312466049</v>
       </c>
       <c r="M24" t="n">
-        <v>451.2928153283074</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>451.2928153283074</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>445.785846265432</v>
+        <v>408.4708585174203</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>64.91877452795579</v>
+        <v>64.91877452795583</v>
       </c>
       <c r="L25" t="n">
-        <v>141.2608408500739</v>
+        <v>141.260840850074</v>
       </c>
       <c r="M25" t="n">
-        <v>160.9775757515333</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N25" t="n">
-        <v>160.4170175595627</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O25" t="n">
-        <v>137.1422382240439</v>
+        <v>137.142238224044</v>
       </c>
       <c r="P25" t="n">
-        <v>95.84970920848465</v>
+        <v>95.8497092084847</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>179.5140384202611</v>
+        <v>179.51403842026</v>
       </c>
       <c r="K26" t="n">
         <v>318.1708085695228</v>
       </c>
       <c r="L26" t="n">
-        <v>546.5652280738293</v>
+        <v>546.5652280738294</v>
       </c>
       <c r="M26" t="n">
-        <v>602.9470837727254</v>
+        <v>602.9470837727255</v>
       </c>
       <c r="N26" t="n">
-        <v>589.577416645263</v>
+        <v>589.5774166452632</v>
       </c>
       <c r="O26" t="n">
-        <v>509.599804183652</v>
+        <v>509.5998041836522</v>
       </c>
       <c r="P26" t="n">
-        <v>417.3026230593701</v>
+        <v>417.3026230593703</v>
       </c>
       <c r="Q26" t="n">
-        <v>260.9417213927932</v>
+        <v>260.9417213927933</v>
       </c>
       <c r="R26" t="n">
-        <v>48.97499167450182</v>
+        <v>48.97499167450187</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L27" t="n">
-        <v>438.5657312466047</v>
+        <v>438.5657312466049</v>
       </c>
       <c r="M27" t="n">
-        <v>570.5092749782722</v>
+        <v>52.5257254043379</v>
       </c>
       <c r="N27" t="n">
-        <v>599.1391629414632</v>
+        <v>599.1391629414633</v>
       </c>
       <c r="O27" t="n">
-        <v>471.8243417781766</v>
+        <v>471.8243417781767</v>
       </c>
       <c r="P27" t="n">
-        <v>365.8734409578346</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.04362787285807</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.76406069471222</v>
+        <v>60.76406069471225</v>
       </c>
       <c r="K28" t="n">
         <v>166.2902255402782</v>
       </c>
       <c r="L28" t="n">
-        <v>242.6322918623962</v>
+        <v>242.6322918623963</v>
       </c>
       <c r="M28" t="n">
-        <v>262.3490267638556</v>
+        <v>262.3490267638557</v>
       </c>
       <c r="N28" t="n">
         <v>261.7884685718851</v>
       </c>
       <c r="O28" t="n">
-        <v>238.5136892363662</v>
+        <v>238.5136892363663</v>
       </c>
       <c r="P28" t="n">
         <v>197.221160220807</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.54437444534921</v>
+        <v>85.54437444534923</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>224.5427855671135</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K29" t="n">
-        <v>419.5422595818451</v>
+        <v>374.5135124349913</v>
       </c>
       <c r="L29" t="n">
-        <v>449.1400215891569</v>
+        <v>546.5652280738293</v>
       </c>
       <c r="M29" t="n">
-        <v>602.9470837727254</v>
+        <v>602.9470837727255</v>
       </c>
       <c r="N29" t="n">
-        <v>589.577416645263</v>
+        <v>589.5774166452632</v>
       </c>
       <c r="O29" t="n">
-        <v>509.599804183652</v>
+        <v>509.5998041836521</v>
       </c>
       <c r="P29" t="n">
-        <v>417.3026230593701</v>
+        <v>417.3026230593703</v>
       </c>
       <c r="Q29" t="n">
-        <v>260.9417213927932</v>
+        <v>260.9417213927933</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>48.97499167450185</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L30" t="n">
-        <v>438.5657312466047</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M30" t="n">
-        <v>570.5092749782722</v>
+        <v>52.52572540433813</v>
       </c>
       <c r="N30" t="n">
-        <v>599.1391629414632</v>
+        <v>599.1391629414633</v>
       </c>
       <c r="O30" t="n">
-        <v>471.8243417781766</v>
+        <v>471.8243417781767</v>
       </c>
       <c r="P30" t="n">
-        <v>365.8734409578346</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.04362787285807</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.76406069471222</v>
+        <v>60.76406069471223</v>
       </c>
       <c r="K31" t="n">
         <v>166.2902255402781</v>
       </c>
       <c r="L31" t="n">
-        <v>242.6322918623962</v>
+        <v>242.6322918623963</v>
       </c>
       <c r="M31" t="n">
-        <v>262.3490267638556</v>
+        <v>262.3490267638557</v>
       </c>
       <c r="N31" t="n">
         <v>261.7884685718851</v>
       </c>
       <c r="O31" t="n">
-        <v>238.5136892363662</v>
+        <v>238.5136892363663</v>
       </c>
       <c r="P31" t="n">
         <v>197.221160220807</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.54437444534921</v>
+        <v>85.54437444534922</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>224.5427855671136</v>
       </c>
       <c r="K32" t="n">
-        <v>419.5422595818451</v>
+        <v>419.5422595818452</v>
       </c>
       <c r="L32" t="n">
-        <v>501.5364809269761</v>
+        <v>501.5364809269756</v>
       </c>
       <c r="M32" t="n">
-        <v>501.575632760403</v>
+        <v>501.5756327604031</v>
       </c>
       <c r="N32" t="n">
         <v>589.5774166452632</v>
@@ -37084,13 +37084,13 @@
         <v>509.5998041836521</v>
       </c>
       <c r="P32" t="n">
-        <v>417.3026230593702</v>
+        <v>417.3026230593703</v>
       </c>
       <c r="Q32" t="n">
         <v>260.9417213927933</v>
       </c>
       <c r="R32" t="n">
-        <v>48.97499167450187</v>
+        <v>48.97499167450188</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>11.48996937552</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>283.1603523957314</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M33" t="n">
-        <v>570.5092749782722</v>
+        <v>570.5092749782723</v>
       </c>
       <c r="N33" t="n">
-        <v>599.1391629414632</v>
+        <v>172.0634010703779</v>
       </c>
       <c r="O33" t="n">
-        <v>471.8243417781766</v>
+        <v>471.8243417781767</v>
       </c>
       <c r="P33" t="n">
-        <v>365.8734409578346</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q33" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>166.2902255402782</v>
       </c>
       <c r="L34" t="n">
-        <v>242.6322918623963</v>
+        <v>242.6322918623959</v>
       </c>
       <c r="M34" t="n">
         <v>262.3490267638557</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>123.1713345547912</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>318.1708085695228</v>
       </c>
       <c r="L35" t="n">
-        <v>445.1937770615069</v>
+        <v>310.2733772134945</v>
       </c>
       <c r="M35" t="n">
-        <v>243.4838983576</v>
+        <v>501.5756327604031</v>
       </c>
       <c r="N35" t="n">
-        <v>488.2059656329407</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O35" t="n">
-        <v>408.2283531713297</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P35" t="n">
-        <v>315.9311720470478</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.5702703804709</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L36" t="n">
-        <v>438.5657312466047</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M36" t="n">
-        <v>570.5092749782722</v>
+        <v>570.5092749782723</v>
       </c>
       <c r="N36" t="n">
-        <v>599.1391629414632</v>
+        <v>552.9799551457063</v>
       </c>
       <c r="O36" t="n">
-        <v>471.8243417781766</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>365.8734409578346</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.04362787285854</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>64.91877452795579</v>
+        <v>64.91877452795582</v>
       </c>
       <c r="L37" t="n">
-        <v>141.2608408500739</v>
+        <v>141.260840850074</v>
       </c>
       <c r="M37" t="n">
-        <v>160.9775757515333</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N37" t="n">
-        <v>160.4170175595627</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O37" t="n">
-        <v>137.1422382240439</v>
+        <v>137.142238224044</v>
       </c>
       <c r="P37" t="n">
-        <v>95.84970920848465</v>
+        <v>95.84970920848468</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>183.2504087215108</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L38" t="n">
-        <v>445.1937770615069</v>
+        <v>310.2733772134945</v>
       </c>
       <c r="M38" t="n">
-        <v>501.575632760403</v>
+        <v>501.5756327604031</v>
       </c>
       <c r="N38" t="n">
-        <v>488.2059656329407</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O38" t="n">
-        <v>408.2283531713297</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P38" t="n">
-        <v>315.9311720470478</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.5702703804709</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L39" t="n">
-        <v>438.5657312466047</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M39" t="n">
-        <v>570.5092749782722</v>
+        <v>570.5092749782723</v>
       </c>
       <c r="N39" t="n">
-        <v>455.2237534661108</v>
+        <v>81.1556133675296</v>
       </c>
       <c r="O39" t="n">
-        <v>471.8243417781766</v>
+        <v>471.8243417781767</v>
       </c>
       <c r="P39" t="n">
-        <v>365.8734409578346</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>64.91877452795579</v>
+        <v>64.91877452795582</v>
       </c>
       <c r="L40" t="n">
-        <v>141.2608408500739</v>
+        <v>141.260840850074</v>
       </c>
       <c r="M40" t="n">
-        <v>160.9775757515333</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N40" t="n">
-        <v>160.4170175595627</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O40" t="n">
-        <v>137.1422382240439</v>
+        <v>137.142238224044</v>
       </c>
       <c r="P40" t="n">
-        <v>95.84970920848465</v>
+        <v>95.84970920848468</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,22 +37783,22 @@
         <v>318.1708085695228</v>
       </c>
       <c r="L41" t="n">
-        <v>445.1937770615069</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M41" t="n">
-        <v>243.4838983576</v>
+        <v>243.4838983575993</v>
       </c>
       <c r="N41" t="n">
-        <v>488.2059656329407</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O41" t="n">
-        <v>408.2283531713297</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P41" t="n">
-        <v>315.9311720470478</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.5702703804709</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>90.90778770284891</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K42" t="n">
-        <v>131.0502437796325</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L42" t="n">
-        <v>438.5657312466047</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M42" t="n">
-        <v>570.5092749782722</v>
+        <v>52.52572540433813</v>
       </c>
       <c r="N42" t="n">
-        <v>599.1391629414632</v>
+        <v>599.1391629414633</v>
       </c>
       <c r="O42" t="n">
-        <v>471.8243417781766</v>
+        <v>471.8243417781767</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>64.91877452795579</v>
+        <v>64.91877452795582</v>
       </c>
       <c r="L43" t="n">
-        <v>141.2608408500739</v>
+        <v>141.260840850074</v>
       </c>
       <c r="M43" t="n">
-        <v>160.9775757515333</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N43" t="n">
-        <v>160.4170175595627</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O43" t="n">
-        <v>137.1422382240439</v>
+        <v>137.142238224044</v>
       </c>
       <c r="P43" t="n">
-        <v>95.84970920848465</v>
+        <v>95.84970920848468</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K44" t="n">
         <v>318.1708085695228</v>
       </c>
       <c r="L44" t="n">
-        <v>310.273377213495</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M44" t="n">
-        <v>501.575632760403</v>
+        <v>501.5756327604031</v>
       </c>
       <c r="N44" t="n">
-        <v>488.2059656329407</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O44" t="n">
-        <v>408.2283531713297</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P44" t="n">
-        <v>315.9311720470478</v>
+        <v>217.4097080247153</v>
       </c>
       <c r="Q44" t="n">
-        <v>159.5702703804709</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>90.90778770284891</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K45" t="n">
-        <v>283.1603523957314</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L45" t="n">
-        <v>392.4065234508486</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M45" t="n">
-        <v>570.5092749782722</v>
+        <v>570.5092749782723</v>
       </c>
       <c r="N45" t="n">
-        <v>599.1391629414632</v>
+        <v>81.1556133675296</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>471.8243417781767</v>
       </c>
       <c r="P45" t="n">
-        <v>365.8734409578346</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>64.91877452795579</v>
+        <v>64.91877452795582</v>
       </c>
       <c r="L46" t="n">
-        <v>141.2608408500739</v>
+        <v>141.260840850074</v>
       </c>
       <c r="M46" t="n">
-        <v>160.9775757515333</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N46" t="n">
-        <v>160.4170175595627</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O46" t="n">
-        <v>137.1422382240439</v>
+        <v>137.142238224044</v>
       </c>
       <c r="P46" t="n">
-        <v>95.84970920848465</v>
+        <v>95.84970920848468</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
